--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01229238741919048</v>
+        <v>0.0122923874192935</v>
       </c>
       <c r="E2">
-        <v>0.009580908297371571</v>
+        <v>0.009580908297408708</v>
       </c>
       <c r="F2">
-        <v>2.107383505381335</v>
+        <v>2.107383505381321</v>
       </c>
       <c r="G2">
         <v>1.663328121551345</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.23656421480446</v>
+        <v>0.2365642148048437</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01017507865116585</v>
+        <v>0.01017507865127243</v>
       </c>
       <c r="E3">
-        <v>0.01240329534088636</v>
+        <v>0.01240329534087714</v>
       </c>
       <c r="F3">
         <v>1.806100588956156</v>
       </c>
       <c r="G3">
-        <v>1.424598143727835</v>
+        <v>1.42459814372782</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.637043235658098</v>
+        <v>3.637043235658069</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2155755686655567</v>
+        <v>0.2155755686652867</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009215470145075955</v>
+        <v>0.009215470144994242</v>
       </c>
       <c r="E4">
-        <v>0.01433851349357063</v>
+        <v>0.01433851349349924</v>
       </c>
       <c r="F4">
-        <v>1.631184660258285</v>
+        <v>1.63118466025827</v>
       </c>
       <c r="G4">
-        <v>1.28658055459411</v>
+        <v>1.286580554594096</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.289425049764858</v>
+        <v>3.289425049764802</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070782547673673</v>
+        <v>0.2070782547672394</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008898202068703398</v>
+        <v>0.008898202068813532</v>
       </c>
       <c r="E5">
-        <v>0.01517423291473041</v>
+        <v>0.0151742329147222</v>
       </c>
       <c r="F5">
-        <v>1.562082320944185</v>
+        <v>1.562082320944171</v>
       </c>
       <c r="G5">
-        <v>1.232189447343856</v>
+        <v>1.232189447343828</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.148845023839428</v>
+        <v>3.148845023839414</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.061936643898505</v>
+        <v>2.061936643898477</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056704294946172</v>
+        <v>0.2056704294946883</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008849661660704555</v>
+        <v>0.008849661660690344</v>
       </c>
       <c r="E6">
-        <v>0.0153157476903012</v>
+        <v>0.01531574769030886</v>
       </c>
       <c r="F6">
-        <v>1.550729893694594</v>
+        <v>1.550729893694609</v>
       </c>
       <c r="G6">
-        <v>1.223261635009294</v>
+        <v>1.22326163500928</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.125559697806395</v>
+        <v>3.125559697806324</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2154607552540426</v>
+        <v>0.2154607552542132</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009210907041701688</v>
+        <v>0.009210907041797611</v>
       </c>
       <c r="E7">
-        <v>0.01434959819245796</v>
+        <v>0.01434959819246584</v>
       </c>
       <c r="F7">
         <v>1.630244343005458</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.15539732416795</v>
+        <v>2.155397324167936</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2591737446811635</v>
+        <v>0.2591737446811777</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01148400928519067</v>
+        <v>0.01148400928518356</v>
       </c>
       <c r="E8">
-        <v>0.01050966337664649</v>
+        <v>0.01050966337662163</v>
       </c>
       <c r="F8">
-        <v>2.001181200060486</v>
+        <v>2.0011812000605</v>
       </c>
       <c r="G8">
         <v>1.579042367629654</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.012409915670872</v>
+        <v>4.012409915670901</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3473125268659487</v>
+        <v>0.3473125268661619</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01928535656170638</v>
+        <v>0.01928535656181651</v>
       </c>
       <c r="E9">
-        <v>0.004785291124031726</v>
+        <v>0.004785291124018709</v>
       </c>
       <c r="F9">
         <v>2.82752212395215</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.490735437090791</v>
+        <v>5.490735437090819</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4142002929684878</v>
+        <v>0.4142002929688005</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02817954087915098</v>
+        <v>0.02817954087925401</v>
       </c>
       <c r="E10">
-        <v>0.002024344903400477</v>
+        <v>0.002024344903401476</v>
       </c>
       <c r="F10">
         <v>3.527509401408167</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.449329258203832</v>
+        <v>4.449329258203861</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4452699164370699</v>
+        <v>0.4452699164373541</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03325515854301386</v>
+        <v>0.03325515854289307</v>
       </c>
       <c r="E11">
-        <v>0.001183937619419484</v>
+        <v>0.001183937619437359</v>
       </c>
       <c r="F11">
-        <v>3.875766999364714</v>
+        <v>3.875766999364686</v>
       </c>
       <c r="G11">
-        <v>3.082642467891574</v>
+        <v>3.08264246789156</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.177281035539636</v>
+        <v>7.177281035539579</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.826392380462522</v>
+        <v>4.826392380462508</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4571454110425037</v>
+        <v>0.4571454110424327</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03536395601215858</v>
+        <v>0.0353639560122545</v>
       </c>
       <c r="E12">
-        <v>0.0009366890580563281</v>
+        <v>0.0009366890580004839</v>
       </c>
       <c r="F12">
-        <v>4.01299698244236</v>
+        <v>4.012996982442445</v>
       </c>
       <c r="G12">
-        <v>3.193786719992744</v>
+        <v>3.193786719992815</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.385892214207075</v>
+        <v>7.385892214207104</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.972207002707009</v>
+        <v>4.972207002706966</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4545825947203923</v>
+        <v>0.4545825947207334</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03490074704568613</v>
+        <v>0.03490074704566482</v>
       </c>
       <c r="E13">
-        <v>0.0009865707358700515</v>
+        <v>0.0009865707358683862</v>
       </c>
       <c r="F13">
         <v>3.983184062441069</v>
       </c>
       <c r="G13">
-        <v>3.169630468365639</v>
+        <v>3.169630468365625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.340785553214147</v>
+        <v>7.34078555321409</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.940656570858238</v>
+        <v>4.940656570858209</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4462446001576552</v>
+        <v>0.4462446001578826</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03342464669106704</v>
+        <v>0.03342464669106349</v>
       </c>
       <c r="E14">
-        <v>0.001162098827391711</v>
+        <v>0.001162098827376057</v>
       </c>
       <c r="F14">
         <v>3.886942643364421</v>
       </c>
       <c r="G14">
-        <v>3.0916891539635</v>
+        <v>3.091689153963486</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4411522604056444</v>
+        <v>0.4411522604051186</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0325461486872527</v>
+        <v>0.03254614868724204</v>
       </c>
       <c r="E15">
-        <v>0.001279242675610082</v>
+        <v>0.001279242675579773</v>
       </c>
       <c r="F15">
         <v>3.828725262976917</v>
       </c>
       <c r="G15">
-        <v>3.044571241307551</v>
+        <v>3.044571241307565</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.105183854485489</v>
+        <v>7.10518385448546</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.776058005310944</v>
+        <v>4.776058005310958</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.412184186672448</v>
+        <v>0.4121841866722775</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02787163087793942</v>
+        <v>0.02787163087818811</v>
       </c>
       <c r="E16">
-        <v>0.002088528255028699</v>
+        <v>0.002088528255008604</v>
       </c>
       <c r="F16">
-        <v>3.505435085573708</v>
+        <v>3.50543508557368</v>
       </c>
       <c r="G16">
-        <v>2.783337825182812</v>
+        <v>2.783337825182784</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.601215064626587</v>
+        <v>6.601215064626558</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.425072905702123</v>
+        <v>4.425072905702095</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3945893279975934</v>
+        <v>0.3945893279974513</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02529209358514706</v>
+        <v>0.02529209358537088</v>
       </c>
       <c r="E17">
-        <v>0.002698599677021185</v>
+        <v>0.002698599677040003</v>
       </c>
       <c r="F17">
-        <v>3.31542359951095</v>
+        <v>3.315423599510893</v>
       </c>
       <c r="G17">
-        <v>2.630146723178484</v>
+        <v>2.630146723178456</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0239024923504374</v>
+        <v>0.02390249235033792</v>
       </c>
       <c r="E18">
-        <v>0.003087800212841441</v>
+        <v>0.003087800212848157</v>
       </c>
       <c r="F18">
-        <v>3.208864904581219</v>
+        <v>3.208864904581162</v>
       </c>
       <c r="G18">
-        <v>2.544355313057395</v>
+        <v>2.54435531305738</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.094777801815084</v>
+        <v>4.09477780181507</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3811316634465385</v>
+        <v>0.3811316634468085</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02344713903707074</v>
+        <v>0.02344713903717022</v>
       </c>
       <c r="E19">
-        <v>0.003225856371672414</v>
+        <v>0.003225856371706193</v>
       </c>
       <c r="F19">
-        <v>3.1732267709898</v>
+        <v>3.173226770989828</v>
       </c>
       <c r="G19">
-        <v>2.515682268483857</v>
+        <v>2.515682268483886</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.066782813677747</v>
+        <v>6.066782813677719</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3964560849391319</v>
+        <v>0.3964560849391461</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02555670511826946</v>
+        <v>0.02555670511805275</v>
       </c>
       <c r="E20">
-        <v>0.002629619538579986</v>
+        <v>0.002629619538581929</v>
       </c>
       <c r="F20">
-        <v>3.33536114723276</v>
+        <v>3.335361147232703</v>
       </c>
       <c r="G20">
         <v>2.646208218495588</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.329819179006705</v>
+        <v>6.329819179006819</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.23668347060773</v>
+        <v>4.236683470607701</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4486905248234621</v>
+        <v>0.4486905248234478</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03385278136156344</v>
+        <v>0.03385278136132897</v>
       </c>
       <c r="E21">
-        <v>0.001108511280412783</v>
+        <v>0.001108511280411228</v>
       </c>
       <c r="F21">
-        <v>3.915055965686093</v>
+        <v>3.915055965686122</v>
       </c>
       <c r="G21">
-        <v>3.114450529457486</v>
+        <v>3.1144505294575</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.868293238717399</v>
+        <v>4.868293238717413</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4834813682385146</v>
+        <v>0.4834813682386994</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04039005573326193</v>
+        <v>0.04039005573351773</v>
       </c>
       <c r="E22">
-        <v>0.0005356864891992164</v>
+        <v>0.0005356864891995494</v>
       </c>
       <c r="F22">
-        <v>4.3258314572752</v>
+        <v>4.325831457275228</v>
       </c>
       <c r="G22">
-        <v>3.447602389479414</v>
+        <v>3.447602389479428</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.299167179809075</v>
+        <v>5.299167179809061</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4648463298466226</v>
+        <v>0.4648463298465657</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03678308961519505</v>
+        <v>0.03678308961529453</v>
       </c>
       <c r="E23">
-        <v>0.0007983488902041369</v>
+        <v>0.0007983488901852631</v>
       </c>
       <c r="F23">
-        <v>4.103244203779184</v>
+        <v>4.103244203779155</v>
       </c>
       <c r="G23">
-        <v>3.266945197599384</v>
+        <v>3.266945197599398</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3956119552839823</v>
+        <v>0.3956119552840107</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02543678606443933</v>
+        <v>0.02543678606467381</v>
       </c>
       <c r="E24">
-        <v>0.002660686465982665</v>
+        <v>0.002660686465984496</v>
       </c>
       <c r="F24">
-        <v>3.326339106185827</v>
+        <v>3.326339106185856</v>
       </c>
       <c r="G24">
-        <v>2.638939779183247</v>
+        <v>2.638939779183261</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.315295107640907</v>
+        <v>6.315295107640821</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.323147325013764</v>
+        <v>0.3231473250135366</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0167154729211596</v>
+        <v>0.01671547292105657</v>
       </c>
       <c r="E25">
-        <v>0.006109174489441149</v>
+        <v>0.006109174489403568</v>
       </c>
       <c r="F25">
         <v>2.590408455796023</v>
       </c>
       <c r="G25">
-        <v>2.048266786149171</v>
+        <v>2.048266786149156</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.082471242487117</v>
+        <v>5.082471242487173</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.376464960750369</v>
+        <v>3.376464960750383</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0122923874192935</v>
+        <v>0.01229238741919048</v>
       </c>
       <c r="E2">
-        <v>0.009580908297408708</v>
+        <v>0.009580908297371571</v>
       </c>
       <c r="F2">
-        <v>2.107383505381321</v>
+        <v>2.107383505381335</v>
       </c>
       <c r="G2">
         <v>1.663328121551345</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2365642148048437</v>
+        <v>0.23656421480446</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01017507865127243</v>
+        <v>0.01017507865116585</v>
       </c>
       <c r="E3">
-        <v>0.01240329534087714</v>
+        <v>0.01240329534088636</v>
       </c>
       <c r="F3">
         <v>1.806100588956156</v>
       </c>
       <c r="G3">
-        <v>1.42459814372782</v>
+        <v>1.424598143727835</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.637043235658069</v>
+        <v>3.637043235658098</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2155755686652867</v>
+        <v>0.2155755686655567</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009215470144994242</v>
+        <v>0.009215470145075955</v>
       </c>
       <c r="E4">
-        <v>0.01433851349349924</v>
+        <v>0.01433851349357063</v>
       </c>
       <c r="F4">
-        <v>1.63118466025827</v>
+        <v>1.631184660258285</v>
       </c>
       <c r="G4">
-        <v>1.286580554594096</v>
+        <v>1.28658055459411</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.289425049764802</v>
+        <v>3.289425049764858</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070782547672394</v>
+        <v>0.2070782547673673</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008898202068813532</v>
+        <v>0.008898202068703398</v>
       </c>
       <c r="E5">
-        <v>0.0151742329147222</v>
+        <v>0.01517423291473041</v>
       </c>
       <c r="F5">
-        <v>1.562082320944171</v>
+        <v>1.562082320944185</v>
       </c>
       <c r="G5">
-        <v>1.232189447343828</v>
+        <v>1.232189447343856</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.148845023839414</v>
+        <v>3.148845023839428</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.061936643898477</v>
+        <v>2.061936643898505</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056704294946883</v>
+        <v>0.2056704294946172</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008849661660690344</v>
+        <v>0.008849661660704555</v>
       </c>
       <c r="E6">
-        <v>0.01531574769030886</v>
+        <v>0.0153157476903012</v>
       </c>
       <c r="F6">
-        <v>1.550729893694609</v>
+        <v>1.550729893694594</v>
       </c>
       <c r="G6">
-        <v>1.22326163500928</v>
+        <v>1.223261635009294</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.125559697806324</v>
+        <v>3.125559697806395</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2154607552542132</v>
+        <v>0.2154607552540426</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009210907041797611</v>
+        <v>0.009210907041701688</v>
       </c>
       <c r="E7">
-        <v>0.01434959819246584</v>
+        <v>0.01434959819245796</v>
       </c>
       <c r="F7">
         <v>1.630244343005458</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.155397324167936</v>
+        <v>2.15539732416795</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2591737446811777</v>
+        <v>0.2591737446811635</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01148400928518356</v>
+        <v>0.01148400928519067</v>
       </c>
       <c r="E8">
-        <v>0.01050966337662163</v>
+        <v>0.01050966337664649</v>
       </c>
       <c r="F8">
-        <v>2.0011812000605</v>
+        <v>2.001181200060486</v>
       </c>
       <c r="G8">
         <v>1.579042367629654</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.012409915670901</v>
+        <v>4.012409915670872</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3473125268661619</v>
+        <v>0.3473125268659487</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01928535656181651</v>
+        <v>0.01928535656170638</v>
       </c>
       <c r="E9">
-        <v>0.004785291124018709</v>
+        <v>0.004785291124031726</v>
       </c>
       <c r="F9">
         <v>2.82752212395215</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.490735437090819</v>
+        <v>5.490735437090791</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4142002929688005</v>
+        <v>0.4142002929684878</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02817954087925401</v>
+        <v>0.02817954087915098</v>
       </c>
       <c r="E10">
-        <v>0.002024344903401476</v>
+        <v>0.002024344903400477</v>
       </c>
       <c r="F10">
         <v>3.527509401408167</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.449329258203861</v>
+        <v>4.449329258203832</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4452699164373541</v>
+        <v>0.4452699164370699</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03325515854289307</v>
+        <v>0.03325515854301386</v>
       </c>
       <c r="E11">
-        <v>0.001183937619437359</v>
+        <v>0.001183937619419484</v>
       </c>
       <c r="F11">
-        <v>3.875766999364686</v>
+        <v>3.875766999364714</v>
       </c>
       <c r="G11">
-        <v>3.08264246789156</v>
+        <v>3.082642467891574</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.177281035539579</v>
+        <v>7.177281035539636</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.826392380462508</v>
+        <v>4.826392380462522</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4571454110424327</v>
+        <v>0.4571454110425037</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0353639560122545</v>
+        <v>0.03536395601215858</v>
       </c>
       <c r="E12">
-        <v>0.0009366890580004839</v>
+        <v>0.0009366890580563281</v>
       </c>
       <c r="F12">
-        <v>4.012996982442445</v>
+        <v>4.01299698244236</v>
       </c>
       <c r="G12">
-        <v>3.193786719992815</v>
+        <v>3.193786719992744</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.385892214207104</v>
+        <v>7.385892214207075</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.972207002706966</v>
+        <v>4.972207002707009</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4545825947207334</v>
+        <v>0.4545825947203923</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03490074704566482</v>
+        <v>0.03490074704568613</v>
       </c>
       <c r="E13">
-        <v>0.0009865707358683862</v>
+        <v>0.0009865707358700515</v>
       </c>
       <c r="F13">
         <v>3.983184062441069</v>
       </c>
       <c r="G13">
-        <v>3.169630468365625</v>
+        <v>3.169630468365639</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.34078555321409</v>
+        <v>7.340785553214147</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.940656570858209</v>
+        <v>4.940656570858238</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4462446001578826</v>
+        <v>0.4462446001576552</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03342464669106349</v>
+        <v>0.03342464669106704</v>
       </c>
       <c r="E14">
-        <v>0.001162098827376057</v>
+        <v>0.001162098827391711</v>
       </c>
       <c r="F14">
         <v>3.886942643364421</v>
       </c>
       <c r="G14">
-        <v>3.091689153963486</v>
+        <v>3.0916891539635</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4411522604051186</v>
+        <v>0.4411522604056444</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03254614868724204</v>
+        <v>0.0325461486872527</v>
       </c>
       <c r="E15">
-        <v>0.001279242675579773</v>
+        <v>0.001279242675610082</v>
       </c>
       <c r="F15">
         <v>3.828725262976917</v>
       </c>
       <c r="G15">
-        <v>3.044571241307565</v>
+        <v>3.044571241307551</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.10518385448546</v>
+        <v>7.105183854485489</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.776058005310958</v>
+        <v>4.776058005310944</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4121841866722775</v>
+        <v>0.412184186672448</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02787163087818811</v>
+        <v>0.02787163087793942</v>
       </c>
       <c r="E16">
-        <v>0.002088528255008604</v>
+        <v>0.002088528255028699</v>
       </c>
       <c r="F16">
-        <v>3.50543508557368</v>
+        <v>3.505435085573708</v>
       </c>
       <c r="G16">
-        <v>2.783337825182784</v>
+        <v>2.783337825182812</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.601215064626558</v>
+        <v>6.601215064626587</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.425072905702095</v>
+        <v>4.425072905702123</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3945893279974513</v>
+        <v>0.3945893279975934</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02529209358537088</v>
+        <v>0.02529209358514706</v>
       </c>
       <c r="E17">
-        <v>0.002698599677040003</v>
+        <v>0.002698599677021185</v>
       </c>
       <c r="F17">
-        <v>3.315423599510893</v>
+        <v>3.31542359951095</v>
       </c>
       <c r="G17">
-        <v>2.630146723178456</v>
+        <v>2.630146723178484</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02390249235033792</v>
+        <v>0.0239024923504374</v>
       </c>
       <c r="E18">
-        <v>0.003087800212848157</v>
+        <v>0.003087800212841441</v>
       </c>
       <c r="F18">
-        <v>3.208864904581162</v>
+        <v>3.208864904581219</v>
       </c>
       <c r="G18">
-        <v>2.54435531305738</v>
+        <v>2.544355313057395</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.09477780181507</v>
+        <v>4.094777801815084</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3811316634468085</v>
+        <v>0.3811316634465385</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02344713903717022</v>
+        <v>0.02344713903707074</v>
       </c>
       <c r="E19">
-        <v>0.003225856371706193</v>
+        <v>0.003225856371672414</v>
       </c>
       <c r="F19">
-        <v>3.173226770989828</v>
+        <v>3.1732267709898</v>
       </c>
       <c r="G19">
-        <v>2.515682268483886</v>
+        <v>2.515682268483857</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.066782813677719</v>
+        <v>6.066782813677747</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3964560849391461</v>
+        <v>0.3964560849391319</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02555670511805275</v>
+        <v>0.02555670511826946</v>
       </c>
       <c r="E20">
-        <v>0.002629619538581929</v>
+        <v>0.002629619538579986</v>
       </c>
       <c r="F20">
-        <v>3.335361147232703</v>
+        <v>3.33536114723276</v>
       </c>
       <c r="G20">
         <v>2.646208218495588</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.329819179006819</v>
+        <v>6.329819179006705</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.236683470607701</v>
+        <v>4.23668347060773</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4486905248234478</v>
+        <v>0.4486905248234621</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03385278136132897</v>
+        <v>0.03385278136156344</v>
       </c>
       <c r="E21">
-        <v>0.001108511280411228</v>
+        <v>0.001108511280412783</v>
       </c>
       <c r="F21">
-        <v>3.915055965686122</v>
+        <v>3.915055965686093</v>
       </c>
       <c r="G21">
-        <v>3.1144505294575</v>
+        <v>3.114450529457486</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.868293238717413</v>
+        <v>4.868293238717399</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4834813682386994</v>
+        <v>0.4834813682385146</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04039005573351773</v>
+        <v>0.04039005573326193</v>
       </c>
       <c r="E22">
-        <v>0.0005356864891995494</v>
+        <v>0.0005356864891992164</v>
       </c>
       <c r="F22">
-        <v>4.325831457275228</v>
+        <v>4.3258314572752</v>
       </c>
       <c r="G22">
-        <v>3.447602389479428</v>
+        <v>3.447602389479414</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.299167179809061</v>
+        <v>5.299167179809075</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4648463298465657</v>
+        <v>0.4648463298466226</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03678308961529453</v>
+        <v>0.03678308961519505</v>
       </c>
       <c r="E23">
-        <v>0.0007983488901852631</v>
+        <v>0.0007983488902041369</v>
       </c>
       <c r="F23">
-        <v>4.103244203779155</v>
+        <v>4.103244203779184</v>
       </c>
       <c r="G23">
-        <v>3.266945197599398</v>
+        <v>3.266945197599384</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3956119552840107</v>
+        <v>0.3956119552839823</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02543678606467381</v>
+        <v>0.02543678606443933</v>
       </c>
       <c r="E24">
-        <v>0.002660686465984496</v>
+        <v>0.002660686465982665</v>
       </c>
       <c r="F24">
-        <v>3.326339106185856</v>
+        <v>3.326339106185827</v>
       </c>
       <c r="G24">
-        <v>2.638939779183261</v>
+        <v>2.638939779183247</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.315295107640821</v>
+        <v>6.315295107640907</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3231473250135366</v>
+        <v>0.323147325013764</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01671547292105657</v>
+        <v>0.0167154729211596</v>
       </c>
       <c r="E25">
-        <v>0.006109174489403568</v>
+        <v>0.006109174489441149</v>
       </c>
       <c r="F25">
         <v>2.590408455796023</v>
       </c>
       <c r="G25">
-        <v>2.048266786149156</v>
+        <v>2.048266786149171</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.082471242487173</v>
+        <v>5.082471242487117</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.376464960750383</v>
+        <v>3.376464960750369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2711599839675358</v>
+        <v>0.2711548467511449</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01229238741919048</v>
+        <v>0.01216303620982373</v>
       </c>
       <c r="E2">
-        <v>0.009580908297371571</v>
+        <v>0.00955234542082567</v>
       </c>
       <c r="F2">
-        <v>2.107383505381335</v>
+        <v>2.102976626825907</v>
       </c>
       <c r="G2">
-        <v>1.663328121551345</v>
+        <v>0.5591542163043073</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.10337893021466</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.211906122628591</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.211287018454982</v>
       </c>
       <c r="L2">
-        <v>2.781672552318369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.781351059997917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.23656421480446</v>
+        <v>0.236560709843431</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01017507865116585</v>
+        <v>0.01006657654719589</v>
       </c>
       <c r="E3">
-        <v>0.01240329534088636</v>
+        <v>0.01237647864947822</v>
       </c>
       <c r="F3">
-        <v>1.806100588956156</v>
+        <v>1.80235054336913</v>
       </c>
       <c r="G3">
-        <v>1.424598143727835</v>
+        <v>0.4752273647603573</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9493992032497687</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.637043235658098</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.636593152323456</v>
       </c>
       <c r="L3">
-        <v>2.391534057696774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.391310301462369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2155755686655567</v>
+        <v>0.2155728987770829</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009215470145075955</v>
+        <v>0.009118493027678198</v>
       </c>
       <c r="E4">
-        <v>0.01433851349357063</v>
+        <v>0.01431349830763773</v>
       </c>
       <c r="F4">
-        <v>1.631184660258285</v>
+        <v>1.627813937269892</v>
       </c>
       <c r="G4">
-        <v>1.28658055459411</v>
+        <v>0.4265099659200189</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8605771114563652</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.289425049764858</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.289065551616929</v>
       </c>
       <c r="L4">
-        <v>2.156678683898463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.156505621277319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070782547673673</v>
+        <v>0.2070758908164834</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008898202068703398</v>
+        <v>0.008805650832609757</v>
       </c>
       <c r="E5">
-        <v>0.01517423291473041</v>
+        <v>0.01515011884827122</v>
       </c>
       <c r="F5">
-        <v>1.562082320944185</v>
+        <v>1.558861207055557</v>
       </c>
       <c r="G5">
-        <v>1.232189447343856</v>
+        <v>0.4072629091967599</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8256221729762672</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.148845023839428</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.148519741068611</v>
       </c>
       <c r="L5">
-        <v>2.061936643898505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.061782328976548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056704294946172</v>
+        <v>0.2056681144692476</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008849661660704555</v>
+        <v>0.008757830309022552</v>
       </c>
       <c r="E6">
-        <v>0.0153157476903012</v>
+        <v>0.01529179289361593</v>
       </c>
       <c r="F6">
-        <v>1.550729893694594</v>
+        <v>1.547533349892461</v>
       </c>
       <c r="G6">
-        <v>1.223261635009294</v>
+        <v>0.4041007976835544</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.81988756004057</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.125559697806395</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.125239949520292</v>
       </c>
       <c r="L6">
-        <v>2.046257194785142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.04610588868465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2154607552540426</v>
+        <v>0.2154580896219045</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009210907041701688</v>
+        <v>0.009113990648863535</v>
       </c>
       <c r="E7">
-        <v>0.01434959819245796</v>
+        <v>0.01432459450357626</v>
       </c>
       <c r="F7">
-        <v>1.630244343005458</v>
+        <v>1.626875656540591</v>
       </c>
       <c r="G7">
-        <v>1.285839887635149</v>
+        <v>0.4262480662206656</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8601009163393485</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.287525105794444</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.287166079275806</v>
       </c>
       <c r="L7">
-        <v>2.15539732416795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.155224521605703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2591737446811635</v>
+        <v>0.2591692100168501</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01148400928519067</v>
+        <v>0.01136214488347775</v>
       </c>
       <c r="E8">
-        <v>0.01050966337664649</v>
+        <v>0.01048154075159335</v>
       </c>
       <c r="F8">
-        <v>2.001181200060486</v>
+        <v>1.99700647323327</v>
       </c>
       <c r="G8">
-        <v>1.579042367629654</v>
+        <v>0.5295664432984779</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.048971340601099</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.012409915670872</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.011852238240749</v>
       </c>
       <c r="L8">
-        <v>2.646039578722437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.64575400681187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3473125268659487</v>
+        <v>0.3473025646235044</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01928535656170638</v>
+        <v>0.01910159932051059</v>
       </c>
       <c r="E9">
-        <v>0.004785291124031726</v>
+        <v>0.004757687683094841</v>
       </c>
       <c r="F9">
-        <v>2.82752212395215</v>
+        <v>2.82151625438064</v>
       </c>
       <c r="G9">
-        <v>2.238075422598953</v>
+        <v>0.7599539742505641</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.475344331055368</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.490735437090791</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5.489647973970165</v>
       </c>
       <c r="L9">
-        <v>3.656995882797219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.656390190076408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4142002929684878</v>
+        <v>0.4141844589551482</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02817954087915098</v>
+        <v>0.02793716630134213</v>
       </c>
       <c r="E10">
-        <v>0.002024344903400477</v>
+        <v>0.002002553422873032</v>
       </c>
       <c r="F10">
-        <v>3.527509401408167</v>
+        <v>3.519893773392198</v>
       </c>
       <c r="G10">
-        <v>2.801151644063722</v>
+        <v>0.9555026453708422</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.840907055981276</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.636113508374848</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>6.63448456317937</v>
       </c>
       <c r="L10">
-        <v>4.449329258203832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.448380445804332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4452699164370699</v>
+        <v>0.4452507344947776</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03325515854301386</v>
+        <v>0.03298154340582471</v>
       </c>
       <c r="E11">
-        <v>0.001183937619419484</v>
+        <v>0.001166350142433825</v>
       </c>
       <c r="F11">
-        <v>3.875766999364714</v>
+        <v>3.867324762479598</v>
       </c>
       <c r="G11">
-        <v>3.082642467891574</v>
+        <v>1.052943017150952</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.02396026112028</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.177281035539636</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7.175350289346426</v>
       </c>
       <c r="L11">
-        <v>4.826392380462522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4.825247850340077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4571454110425037</v>
+        <v>0.4571248315208862</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03536395601215858</v>
+        <v>0.03507764489554788</v>
       </c>
       <c r="E12">
-        <v>0.0009366890580563281</v>
+        <v>0.0009209566736059216</v>
       </c>
       <c r="F12">
-        <v>4.01299698244236</v>
+        <v>4.004223692185377</v>
       </c>
       <c r="G12">
-        <v>3.193786719992744</v>
+        <v>1.091367433487406</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.096282903964465</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.385892214207075</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7.383836451003589</v>
       </c>
       <c r="L12">
-        <v>4.972207002707009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4.970980648763941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4545825947203923</v>
+        <v>0.4545623226073445</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03490074704568613</v>
+        <v>0.03461721285334463</v>
       </c>
       <c r="E13">
-        <v>0.0009865707358700515</v>
+        <v>0.0009704264316053868</v>
       </c>
       <c r="F13">
-        <v>3.983184062441069</v>
+        <v>3.974482961009812</v>
       </c>
       <c r="G13">
-        <v>3.169630468365639</v>
+        <v>1.083018444764534</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.080562145292618</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.340785553214147</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7.338757246778016</v>
       </c>
       <c r="L13">
-        <v>4.940656570858238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4.939448222292711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4462446001576552</v>
+        <v>0.4462253060638659</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03342464669106704</v>
+        <v>0.03315000585379124</v>
       </c>
       <c r="E14">
-        <v>0.001162098827391711</v>
+        <v>0.001144658450364489</v>
       </c>
       <c r="F14">
-        <v>3.886942643364421</v>
+        <v>3.878473563228368</v>
       </c>
       <c r="G14">
-        <v>3.0916891539635</v>
+        <v>1.056071598499031</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.029846112977623</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.194364566426174</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.192423769454109</v>
       </c>
       <c r="L14">
-        <v>4.838323694994358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4.83717260190835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4411522604056444</v>
+        <v>0.4411335473173352</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0325461486872527</v>
+        <v>0.03227683512487545</v>
       </c>
       <c r="E15">
-        <v>0.001279242675610082</v>
+        <v>0.001261043948636464</v>
       </c>
       <c r="F15">
-        <v>3.828725262976917</v>
+        <v>3.820395794619998</v>
       </c>
       <c r="G15">
-        <v>3.044571241307551</v>
+        <v>1.039775018107349</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.999192618158915</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.105183854485489</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7.103295163376032</v>
       </c>
       <c r="L15">
-        <v>4.776058005310944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4.774940906450482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.412184186672448</v>
+        <v>0.4121685553022587</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02787163087793942</v>
+        <v>0.02763118965497569</v>
       </c>
       <c r="E16">
-        <v>0.002088528255028699</v>
+        <v>0.002066496593384648</v>
       </c>
       <c r="F16">
-        <v>3.505435085573708</v>
+        <v>3.497871231795187</v>
       </c>
       <c r="G16">
-        <v>2.783337825182812</v>
+        <v>0.949329832183551</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.829328774627413</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.601215064626587</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6.599604512400589</v>
       </c>
       <c r="L16">
-        <v>4.425072905702123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.424135930528195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3945893279975934</v>
+        <v>0.3945753939316461</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02529209358514706</v>
+        <v>0.02506806537677875</v>
       </c>
       <c r="E17">
-        <v>0.002698599677021185</v>
+        <v>0.002674641794526422</v>
       </c>
       <c r="F17">
-        <v>3.31542359951095</v>
+        <v>3.308302531193817</v>
       </c>
       <c r="G17">
-        <v>2.630146723178484</v>
+        <v>0.8962122290625274</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.729792978353942</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.297705377975092</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6.296249568591833</v>
       </c>
       <c r="L17">
-        <v>4.214420503420371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.213582658476057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.384528432630276</v>
+        <v>0.3845154135569686</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0239024923504374</v>
+        <v>0.02368748953490041</v>
       </c>
       <c r="E18">
-        <v>0.003087800212841441</v>
+        <v>0.003062878581693629</v>
       </c>
       <c r="F18">
-        <v>3.208864904581219</v>
+        <v>3.201989974920878</v>
       </c>
       <c r="G18">
-        <v>2.544355313057395</v>
+        <v>0.8664368496534252</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.674076835349894</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.124972538241707</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.123600720417699</v>
       </c>
       <c r="L18">
-        <v>4.094777801815084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.093993397342402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3811316634465385</v>
+        <v>0.3811189444750624</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02344713903707074</v>
+        <v>0.02323512606179179</v>
       </c>
       <c r="E19">
-        <v>0.003225856371672414</v>
+        <v>0.00320063211513405</v>
       </c>
       <c r="F19">
-        <v>3.1732267709898</v>
+        <v>3.166433825929772</v>
       </c>
       <c r="G19">
-        <v>2.515682268483857</v>
+        <v>0.8564806588985618</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.655460025938595</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.066782813677747</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.065438642234028</v>
       </c>
       <c r="L19">
-        <v>4.054512730334764</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.053745855836823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3964560849391319</v>
+        <v>0.3964419767325751</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02555670511826946</v>
+        <v>0.02533097395005157</v>
       </c>
       <c r="E20">
-        <v>0.002629619538579986</v>
+        <v>0.002605851525184055</v>
       </c>
       <c r="F20">
-        <v>3.33536114723276</v>
+        <v>3.328193855175215</v>
       </c>
       <c r="G20">
-        <v>2.646208218495588</v>
+        <v>0.9017843538913866</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.740226109967693</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.329819179006705</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.328347432716328</v>
       </c>
       <c r="L20">
-        <v>4.23668347060773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.235835455578595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4486905248234621</v>
+        <v>0.448670947299675</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03385278136156344</v>
+        <v>0.0335755538509197</v>
       </c>
       <c r="E21">
-        <v>0.001108511280412783</v>
+        <v>0.001091444107719663</v>
       </c>
       <c r="F21">
-        <v>3.915055965686093</v>
+        <v>3.906519268247763</v>
       </c>
       <c r="G21">
-        <v>3.114450529457486</v>
+        <v>1.063942292578346</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.044655587024565</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.237264733823963</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7.235298551412967</v>
       </c>
       <c r="L21">
-        <v>4.868293238717399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>4.867125557337943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4834813682385146</v>
+        <v>0.4834574352843504</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04039005573326193</v>
+        <v>0.04007396934898821</v>
       </c>
       <c r="E22">
-        <v>0.0005356864891992164</v>
+        <v>0.0005245554432473654</v>
       </c>
       <c r="F22">
-        <v>4.3258314572752</v>
+        <v>4.316291288379858</v>
       </c>
       <c r="G22">
-        <v>3.447602389479414</v>
+        <v>1.179021320305893</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.261529395789339</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.852322798998131</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.849968822055388</v>
       </c>
       <c r="L22">
-        <v>5.299167179809075</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.29774408806216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4648463298466226</v>
+        <v>0.4648248069072309</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03678308961519505</v>
+        <v>0.03648830856249674</v>
       </c>
       <c r="E23">
-        <v>0.0007983488902041369</v>
+        <v>0.000783892563783084</v>
       </c>
       <c r="F23">
-        <v>4.103244203779184</v>
+        <v>4.094251461453126</v>
       </c>
       <c r="G23">
-        <v>3.266945197599384</v>
+        <v>1.1166454361788</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.143900773549007</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.521726530076705</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.519586638998334</v>
       </c>
       <c r="L23">
-        <v>5.067291020914553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.06600938042601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3956119552839823</v>
+        <v>0.3955979259939681</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02543678606443933</v>
+        <v>0.02521182606876238</v>
       </c>
       <c r="E24">
-        <v>0.002660686465982665</v>
+        <v>0.002636832168167569</v>
       </c>
       <c r="F24">
-        <v>3.326339106185827</v>
+        <v>3.319192737807782</v>
       </c>
       <c r="G24">
-        <v>2.638939779183247</v>
+        <v>0.8992628427768068</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.735504635829741</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.315295107640907</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>6.313830581720254</v>
       </c>
       <c r="L24">
-        <v>4.226613868485259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.225770462270773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.323147325013764</v>
+        <v>0.3231390903838047</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0167154729211596</v>
+        <v>0.01655030645907374</v>
       </c>
       <c r="E25">
-        <v>0.006109174489441149</v>
+        <v>0.006080590171828826</v>
       </c>
       <c r="F25">
-        <v>2.590408455796023</v>
+        <v>2.584934530827866</v>
       </c>
       <c r="G25">
-        <v>2.048266786149171</v>
+        <v>0.6938004087767524</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.352345243343862</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.082471242487117</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.08154789724469</v>
       </c>
       <c r="L25">
-        <v>3.376464960750369</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.375960563108066</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2711548467511449</v>
+        <v>0.2704405539289354</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01216303620982373</v>
+        <v>0.3235197653023505</v>
       </c>
       <c r="E2">
-        <v>0.00955234542082567</v>
+        <v>0.3117336238058783</v>
       </c>
       <c r="F2">
-        <v>2.102976626825907</v>
+        <v>2.164483724344279</v>
       </c>
       <c r="G2">
-        <v>0.5591542163043073</v>
+        <v>0.0007053602001656118</v>
       </c>
       <c r="H2">
-        <v>1.10337893021466</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4060965508515295</v>
       </c>
       <c r="K2">
-        <v>4.211287018454982</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.781351059997917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.71748995648548</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.11198456265609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.236560709843431</v>
+        <v>0.2356615313913153</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01006657654719589</v>
+        <v>0.2758314775172863</v>
       </c>
       <c r="E3">
-        <v>0.01237647864947822</v>
+        <v>0.2694376561942775</v>
       </c>
       <c r="F3">
-        <v>1.80235054336913</v>
+        <v>1.81100447847875</v>
       </c>
       <c r="G3">
-        <v>0.4752273647603573</v>
+        <v>0.0007269859415655176</v>
       </c>
       <c r="H3">
-        <v>0.9493992032497687</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3464010413126033</v>
       </c>
       <c r="K3">
-        <v>3.636593152323456</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.391310301462369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.29560851303475</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.758342878022432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2155728987770829</v>
+        <v>0.2146357025817878</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009118493027678198</v>
+        <v>0.2477831891951041</v>
       </c>
       <c r="E4">
-        <v>0.01431349830763773</v>
+        <v>0.2444310979623054</v>
       </c>
       <c r="F4">
-        <v>1.627813937269892</v>
+        <v>1.629411633749655</v>
       </c>
       <c r="G4">
-        <v>0.4265099659200189</v>
+        <v>0.0007401061955255122</v>
       </c>
       <c r="H4">
-        <v>0.8605771114563652</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3122749671062763</v>
       </c>
       <c r="K4">
-        <v>3.289065551616929</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.156505621277319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.86202113081001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.571135565874087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070758908164834</v>
+        <v>0.2061371765967266</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008805650832609757</v>
+        <v>0.2365929241917542</v>
       </c>
       <c r="E5">
-        <v>0.01515011884827122</v>
+        <v>0.2344295163073369</v>
       </c>
       <c r="F5">
-        <v>1.558861207055557</v>
+        <v>1.562627568304507</v>
       </c>
       <c r="G5">
-        <v>0.4072629091967599</v>
+        <v>0.0007454389570755752</v>
       </c>
       <c r="H5">
-        <v>0.8256221729762672</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.298868577066898</v>
       </c>
       <c r="K5">
-        <v>3.148519741068611</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.061782328976548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.28815255508641</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.500917850810822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056681144692476</v>
+        <v>0.2047298713384009</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008757830309022552</v>
+        <v>0.2347475116809221</v>
       </c>
       <c r="E6">
-        <v>0.01529179289361593</v>
+        <v>0.2327788281058574</v>
       </c>
       <c r="F6">
-        <v>1.547533349892461</v>
+        <v>1.551932011300394</v>
       </c>
       <c r="G6">
-        <v>0.4041007976835544</v>
+        <v>0.0007463242666713166</v>
       </c>
       <c r="H6">
-        <v>0.81988756004057</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2966693217235417</v>
       </c>
       <c r="K6">
-        <v>3.125239949520292</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.04610588868465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.19340833417678</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.489588889097249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2154580896219045</v>
+        <v>0.2145208219936023</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009113990648863535</v>
+        <v>0.2476313841134896</v>
       </c>
       <c r="E7">
-        <v>0.01432459450357626</v>
+        <v>0.2442955105137372</v>
       </c>
       <c r="F7">
-        <v>1.626875656540591</v>
+        <v>1.628483685309163</v>
       </c>
       <c r="G7">
-        <v>0.4262480662206656</v>
+        <v>0.0007401781411151553</v>
       </c>
       <c r="H7">
-        <v>0.8601009163393485</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3120922934284636</v>
       </c>
       <c r="K7">
-        <v>3.287166079275806</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.155224521605703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.85424350742494</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.57016567335674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2591692100168501</v>
+        <v>0.2583719900042496</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01136214488347775</v>
+        <v>0.3067729200460292</v>
       </c>
       <c r="E8">
-        <v>0.01048154075159335</v>
+        <v>0.2969135536514855</v>
       </c>
       <c r="F8">
-        <v>1.99700647323327</v>
+        <v>2.034080058756473</v>
       </c>
       <c r="G8">
-        <v>0.5295664432984779</v>
+        <v>0.0007128672839685263</v>
       </c>
       <c r="H8">
-        <v>1.048971340601099</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3848960724507293</v>
       </c>
       <c r="K8">
-        <v>4.011852238240749</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.64575400681187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.86920314030613</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.982835639450528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3473025646235044</v>
+        <v>0.3477179598091027</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01910159932051059</v>
+        <v>0.4370265734800114</v>
       </c>
       <c r="E9">
-        <v>0.004757687683094841</v>
+        <v>0.4111245153132401</v>
       </c>
       <c r="F9">
-        <v>2.82151625438064</v>
+        <v>3.220899991225025</v>
       </c>
       <c r="G9">
-        <v>0.7599539742505641</v>
+        <v>0.0006563995734710846</v>
       </c>
       <c r="H9">
-        <v>1.475344331055368</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.556450527313558</v>
       </c>
       <c r="K9">
-        <v>5.489647973970165</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.656390190076408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>22.40347771159213</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.124032905377831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4141844589551482</v>
+        <v>0.4168765315361753</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02793716630134213</v>
+        <v>0.5517183064884819</v>
       </c>
       <c r="E10">
-        <v>0.002002553422873032</v>
+        <v>0.5093350705057844</v>
       </c>
       <c r="F10">
-        <v>3.519893773392198</v>
+        <v>4.588777937320032</v>
       </c>
       <c r="G10">
-        <v>0.9555026453708422</v>
+        <v>0.0006093479722800099</v>
       </c>
       <c r="H10">
-        <v>1.840907055981276</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7201516902986782</v>
       </c>
       <c r="K10">
-        <v>6.63448456317937</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.448380445804332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>28.02908505384551</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>4.385156085046461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4452507344947776</v>
+        <v>0.4496775100010382</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03298154340582471</v>
+        <v>0.6129039705556352</v>
       </c>
       <c r="E11">
-        <v>0.001166350142433825</v>
+        <v>0.5605967464792982</v>
       </c>
       <c r="F11">
-        <v>3.867324762479598</v>
+        <v>5.443659991541779</v>
       </c>
       <c r="G11">
-        <v>1.052943017150952</v>
+        <v>0.0005849393338783352</v>
       </c>
       <c r="H11">
-        <v>2.02396026112028</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8123533755863974</v>
       </c>
       <c r="K11">
-        <v>7.175350289346426</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.825247850340077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>30.97390111351189</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>5.157513361653344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4571248315208862</v>
+        <v>0.4623824370842584</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03507764489554788</v>
+        <v>0.638271809121818</v>
       </c>
       <c r="E12">
-        <v>0.0009209566736059216</v>
+        <v>0.5815774460003027</v>
       </c>
       <c r="F12">
-        <v>4.004223692185377</v>
+        <v>5.824245355486084</v>
       </c>
       <c r="G12">
-        <v>1.091367433487406</v>
+        <v>0.0005749338774437903</v>
       </c>
       <c r="H12">
-        <v>2.096282903964465</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8515718703038857</v>
       </c>
       <c r="K12">
-        <v>7.383836451003589</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.970980648763941</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>32.181741459237</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>5.498570485958965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4545623226073445</v>
+        <v>0.4596313075685714</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03461721285334463</v>
+        <v>0.6326863726539216</v>
       </c>
       <c r="E13">
-        <v>0.0009704264316053868</v>
+        <v>0.5769726946736924</v>
       </c>
       <c r="F13">
-        <v>3.974482961009812</v>
+        <v>5.739117657314608</v>
       </c>
       <c r="G13">
-        <v>1.083018444764534</v>
+        <v>0.0005771314955070883</v>
       </c>
       <c r="H13">
-        <v>2.080562145292618</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.8428872061227111</v>
       </c>
       <c r="K13">
-        <v>7.338757246778016</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.939448222292711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>31.91650176498956</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>5.422415914358709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4462253060638659</v>
+        <v>0.4507162807387601</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03315000585379124</v>
+        <v>0.6149386545560276</v>
       </c>
       <c r="E14">
-        <v>0.001144658450364489</v>
+        <v>0.5622857794794029</v>
       </c>
       <c r="F14">
-        <v>3.878473563228368</v>
+        <v>5.473615213670541</v>
       </c>
       <c r="G14">
-        <v>1.056071598499031</v>
+        <v>0.0005841344863772857</v>
       </c>
       <c r="H14">
-        <v>2.029846112977623</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8154776281763958</v>
       </c>
       <c r="K14">
-        <v>7.192423769454109</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.83717260190835</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31.07107524372242</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>5.184413846050859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4411335473173352</v>
+        <v>0.4452964271001179</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03227683512487545</v>
+        <v>0.6043948436193887</v>
       </c>
       <c r="E15">
-        <v>0.001261043948636464</v>
+        <v>0.5535217298917843</v>
       </c>
       <c r="F15">
-        <v>3.820395794619998</v>
+        <v>5.319458803322249</v>
       </c>
       <c r="G15">
-        <v>1.039775018107349</v>
+        <v>0.0005883097822207029</v>
       </c>
       <c r="H15">
-        <v>1.999192618158915</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7993280921731696</v>
       </c>
       <c r="K15">
-        <v>7.103295163376032</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.774940906450482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>30.5669691805719</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>5.045869410792307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4121685553022587</v>
+        <v>0.4147663013941099</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02763118965497569</v>
+        <v>0.5479618432767381</v>
       </c>
       <c r="E16">
-        <v>0.002066496593384648</v>
+        <v>0.5061598998379822</v>
       </c>
       <c r="F16">
-        <v>3.497871231795187</v>
+        <v>4.539162682442424</v>
       </c>
       <c r="G16">
-        <v>0.949329832183551</v>
+        <v>0.0006108603679274206</v>
       </c>
       <c r="H16">
-        <v>1.829328774627413</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.714601519933737</v>
       </c>
       <c r="K16">
-        <v>6.599604512400589</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.424135930528195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>27.84692619978966</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>4.340022780287427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3945753939316461</v>
+        <v>0.3964280893200538</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02506806537677875</v>
+        <v>0.5160904167045715</v>
       </c>
       <c r="E17">
-        <v>0.002674641794526422</v>
+        <v>0.479100331967544</v>
       </c>
       <c r="F17">
-        <v>3.308302531193817</v>
+        <v>4.131410388016718</v>
       </c>
       <c r="G17">
-        <v>0.8962122290625274</v>
+        <v>0.0006237632831296303</v>
       </c>
       <c r="H17">
-        <v>1.729792978353942</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6680261174871305</v>
       </c>
       <c r="K17">
-        <v>6.296249568591833</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.213582658476057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>26.29545674533369</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.967600010629681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3845154135569686</v>
+        <v>0.3859991796619511</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02368748953490041</v>
+        <v>0.4985311713091676</v>
       </c>
       <c r="E18">
-        <v>0.003062878581693629</v>
+        <v>0.4641041718862269</v>
       </c>
       <c r="F18">
-        <v>3.201989974920878</v>
+        <v>3.916803562888219</v>
       </c>
       <c r="G18">
-        <v>0.8664368496534252</v>
+        <v>0.0006309296641789791</v>
       </c>
       <c r="H18">
-        <v>1.674076835349894</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.642758862318189</v>
       </c>
       <c r="K18">
-        <v>6.123600720417699</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.093993397342402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>25.43627644090168</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.770403695718556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3811189444750624</v>
+        <v>0.3824866341472983</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02323512606179179</v>
+        <v>0.4927015013119558</v>
       </c>
       <c r="E19">
-        <v>0.00320063211513405</v>
+        <v>0.4591122174965605</v>
       </c>
       <c r="F19">
-        <v>3.166433825929772</v>
+        <v>3.847123776113222</v>
       </c>
       <c r="G19">
-        <v>0.8564806588985618</v>
+        <v>0.0006333185426316104</v>
       </c>
       <c r="H19">
-        <v>1.655460025938595</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6344317877714332</v>
       </c>
       <c r="K19">
-        <v>6.065438642234028</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.053745855836823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>25.15035606097814</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.706182584515346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3964419767325751</v>
+        <v>0.3983674602128815</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02533097395005157</v>
+        <v>0.5193989216379862</v>
       </c>
       <c r="E20">
-        <v>0.002605851525184055</v>
+        <v>0.4819190630238737</v>
       </c>
       <c r="F20">
-        <v>3.328193855175215</v>
+        <v>4.172643030749413</v>
       </c>
       <c r="G20">
-        <v>0.9017843538913866</v>
+        <v>0.000622417729499087</v>
       </c>
       <c r="H20">
-        <v>1.740226109967693</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6728182037935539</v>
       </c>
       <c r="K20">
-        <v>6.328347432716328</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.235835455578595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>26.45699770441109</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>4.005389096261752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.448670947299675</v>
+        <v>0.4533260476200098</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0335755538509197</v>
+        <v>0.6200803961220913</v>
       </c>
       <c r="E21">
-        <v>0.001091444107719663</v>
+        <v>0.5665492832035</v>
       </c>
       <c r="F21">
-        <v>3.906519268247763</v>
+        <v>5.549755651885221</v>
       </c>
       <c r="G21">
-        <v>1.063942292578346</v>
+        <v>0.0005821024433348675</v>
       </c>
       <c r="H21">
-        <v>2.044655587024565</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8233893829886654</v>
       </c>
       <c r="K21">
-        <v>7.235298551412967</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.867125557337943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>31.31641155516706</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>5.25274508010682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4834574352843504</v>
+        <v>0.4910164641660231</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04007396934898821</v>
+        <v>0.7000365144515115</v>
       </c>
       <c r="E22">
-        <v>0.0005245554432473654</v>
+        <v>0.6318953043192082</v>
       </c>
       <c r="F22">
-        <v>4.316291288379858</v>
+        <v>6.816391882335807</v>
       </c>
       <c r="G22">
-        <v>1.179021320305893</v>
+        <v>0.0005508216815495454</v>
       </c>
       <c r="H22">
-        <v>2.261529395789339</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.9494550806984279</v>
       </c>
       <c r="K22">
-        <v>7.849968822055388</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.29774408806216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>35.08647196227395</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>6.381220185860116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4648248069072309</v>
+        <v>0.4706831475446478</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03648830856249674</v>
+        <v>0.6554611585530665</v>
       </c>
       <c r="E23">
-        <v>0.000783892563783084</v>
+        <v>0.5956944129024535</v>
       </c>
       <c r="F23">
-        <v>4.094251461453126</v>
+        <v>6.090975493554652</v>
       </c>
       <c r="G23">
-        <v>1.1166454361788</v>
+        <v>0.0005681890184967564</v>
       </c>
       <c r="H23">
-        <v>2.143900773549007</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.878474182650848</v>
       </c>
       <c r="K23">
-        <v>7.519586638998334</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.06600938042601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>32.99545803741159</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>5.736724351644682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3955979259939681</v>
+        <v>0.3974903213309631</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02521182606876238</v>
+        <v>0.5179008203875526</v>
       </c>
       <c r="E24">
-        <v>0.002636832168167569</v>
+        <v>0.4806430056282309</v>
       </c>
       <c r="F24">
-        <v>3.319192737807782</v>
+        <v>4.153941420335315</v>
       </c>
       <c r="G24">
-        <v>0.8992628427768068</v>
+        <v>0.000623026818552982</v>
       </c>
       <c r="H24">
-        <v>1.735504635829741</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6706471044465161</v>
       </c>
       <c r="K24">
-        <v>6.313830581720254</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.225770462270773</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>26.38386517225962</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.988253152544729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3231390903838047</v>
+        <v>0.3230655457716978</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01655030645907374</v>
+        <v>0.3994769889008722</v>
       </c>
       <c r="E25">
-        <v>0.006080590171828826</v>
+        <v>0.3784612787896791</v>
       </c>
       <c r="F25">
-        <v>2.584934530827866</v>
+        <v>2.838564981659232</v>
       </c>
       <c r="G25">
-        <v>0.6938004087767524</v>
+        <v>0.0006722761233504456</v>
       </c>
       <c r="H25">
-        <v>1.352345243343862</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5054308127859457</v>
       </c>
       <c r="K25">
-        <v>5.08154789724469</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.375960563108066</v>
+        <v>20.53489032108013</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.763180887502074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2704405539289354</v>
+        <v>0.3890025793719047</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3235197653023505</v>
+        <v>0.04766903547265855</v>
       </c>
       <c r="E2">
-        <v>0.3117336238058783</v>
+        <v>0.03434699795261409</v>
       </c>
       <c r="F2">
-        <v>2.164483724344279</v>
+        <v>3.686392422569611</v>
       </c>
       <c r="G2">
-        <v>0.0007053602001656118</v>
+        <v>0.0008696263883153102</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.008515716694262</v>
       </c>
       <c r="J2">
-        <v>0.4060965508515295</v>
+        <v>0.08218719886103365</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.648846908841534</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3862189144219741</v>
       </c>
       <c r="M2">
-        <v>16.71748995648548</v>
+        <v>0.191189047110452</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.11198456265609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2356615313913153</v>
+        <v>0.3455188546138572</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2758314775172863</v>
+        <v>0.04196995954757909</v>
       </c>
       <c r="E3">
-        <v>0.2694376561942775</v>
+        <v>0.0310841329159981</v>
       </c>
       <c r="F3">
-        <v>1.81100447847875</v>
+        <v>3.476218324390146</v>
       </c>
       <c r="G3">
-        <v>0.0007269859415655176</v>
+        <v>0.0008777309213813617</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.928564638188803</v>
       </c>
       <c r="J3">
-        <v>0.3464010413126033</v>
+        <v>0.07928159699500803</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.438376996421027</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3495373257863719</v>
       </c>
       <c r="M3">
-        <v>14.29560851303475</v>
+        <v>0.171471695752782</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.758342878022432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2146357025817878</v>
+        <v>0.3193827529773756</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2477831891951041</v>
+        <v>0.03854479707148784</v>
       </c>
       <c r="E4">
-        <v>0.2444310979623054</v>
+        <v>0.02910809965096917</v>
       </c>
       <c r="F4">
-        <v>1.629411633749655</v>
+        <v>3.351145160446507</v>
       </c>
       <c r="G4">
-        <v>0.0007401061955255122</v>
+        <v>0.0008828523143249571</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.881096264876305</v>
       </c>
       <c r="J4">
-        <v>0.3122749671062763</v>
+        <v>0.07750084751232222</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.311699229099361</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3276388323051691</v>
       </c>
       <c r="M4">
-        <v>12.86202113081001</v>
+        <v>0.159663724505279</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.571135565874087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2061371765967266</v>
+        <v>0.3088627980115177</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2365929241917542</v>
+        <v>0.03716501640570158</v>
       </c>
       <c r="E5">
-        <v>0.2344295163073369</v>
+        <v>0.02830823176578967</v>
       </c>
       <c r="F5">
-        <v>1.562627568304507</v>
+        <v>3.301098499995092</v>
       </c>
       <c r="G5">
-        <v>0.0007454389570755752</v>
+        <v>0.0008849770985375893</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.862130637242373</v>
       </c>
       <c r="J5">
-        <v>0.298868577066898</v>
+        <v>0.07677474213489255</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.260648115900466</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3188584741463245</v>
       </c>
       <c r="M5">
-        <v>12.28815255508641</v>
+        <v>0.1549208228890357</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.500917850810822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2047298713384009</v>
+        <v>0.3071235594800612</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2347475116809221</v>
+        <v>0.03693679843496511</v>
       </c>
       <c r="E6">
-        <v>0.2327788281058574</v>
+        <v>0.02817569782618534</v>
       </c>
       <c r="F6">
-        <v>1.551932011300394</v>
+        <v>3.292841787178844</v>
       </c>
       <c r="G6">
-        <v>0.0007463242666713166</v>
+        <v>0.0008853322344086756</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.859003416108294</v>
       </c>
       <c r="J6">
-        <v>0.2966693217235417</v>
+        <v>0.07665411161679359</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.252203649584345</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3174087913854038</v>
       </c>
       <c r="M6">
-        <v>12.19340833417678</v>
+        <v>0.1541372608314227</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.489588889097249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2145208219936023</v>
+        <v>0.3192403617145061</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2476313841134896</v>
+        <v>0.0385261274011981</v>
       </c>
       <c r="E7">
-        <v>0.2442955105137372</v>
+        <v>0.02909729245656401</v>
       </c>
       <c r="F7">
-        <v>1.628483685309163</v>
+        <v>3.350466580658605</v>
       </c>
       <c r="G7">
-        <v>0.0007401781411151553</v>
+        <v>0.000882880815237815</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.880838994604375</v>
       </c>
       <c r="J7">
-        <v>0.3120922934284636</v>
+        <v>0.07749105835953252</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.311008512897445</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3275198535756374</v>
       </c>
       <c r="M7">
-        <v>12.85424350742494</v>
+        <v>0.159599488709631</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.57016567335674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2583719900042496</v>
+        <v>0.3738857182834892</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3067729200460292</v>
+        <v>0.04568696233023672</v>
       </c>
       <c r="E8">
-        <v>0.2969135536514855</v>
+        <v>0.03321533300849389</v>
       </c>
       <c r="F8">
-        <v>2.034080058756473</v>
+        <v>3.613050836080788</v>
       </c>
       <c r="G8">
-        <v>0.0007128672839685263</v>
+        <v>0.0008723914916053968</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.980593395477058</v>
       </c>
       <c r="J8">
-        <v>0.3848960724507293</v>
+        <v>0.081183864816186</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.575703094728112</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3734331057626434</v>
       </c>
       <c r="M8">
-        <v>15.86920314030613</v>
+        <v>0.1843246969601999</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.982835639450528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3477179598091027</v>
+        <v>0.4860514915102669</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4370265734800114</v>
+        <v>0.06044867614413363</v>
       </c>
       <c r="E9">
-        <v>0.4111245153132401</v>
+        <v>0.04158344849515494</v>
       </c>
       <c r="F9">
-        <v>3.220899991225025</v>
+        <v>4.163353399075362</v>
       </c>
       <c r="G9">
-        <v>0.0006563995734710846</v>
+        <v>0.0008529115850053337</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.190543099453947</v>
       </c>
       <c r="J9">
-        <v>0.556450527313558</v>
+        <v>0.08851515302999857</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.118515408297895</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4690905295948227</v>
       </c>
       <c r="M9">
-        <v>22.40347771159213</v>
+        <v>0.2354836519950858</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.124032905377831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4168765315361753</v>
+        <v>0.5723409669073192</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5517183064884819</v>
+        <v>0.07193778734131939</v>
       </c>
       <c r="E10">
-        <v>0.5093350705057844</v>
+        <v>0.04802816300383306</v>
       </c>
       <c r="F10">
-        <v>4.588777937320032</v>
+        <v>4.595127710809749</v>
       </c>
       <c r="G10">
-        <v>0.0006093479722800099</v>
+        <v>0.0008391687833500661</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.355769870418072</v>
       </c>
       <c r="J10">
-        <v>0.7201516902986782</v>
+        <v>0.09405575624062124</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.537212536128465</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5438315834645522</v>
       </c>
       <c r="M10">
-        <v>28.02908505384551</v>
+        <v>0.27516837435887</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.385156085046461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4496775100010382</v>
+        <v>0.6126465526153879</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6129039705556352</v>
+        <v>0.07735698064229979</v>
       </c>
       <c r="E11">
-        <v>0.5605967464792982</v>
+        <v>0.05105504092809987</v>
       </c>
       <c r="F11">
-        <v>5.443659991541779</v>
+        <v>4.798998270936437</v>
       </c>
       <c r="G11">
-        <v>0.0005849393338783352</v>
+        <v>0.0008330167021828316</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.433878660475628</v>
       </c>
       <c r="J11">
-        <v>0.8123533755863974</v>
+        <v>0.09663562617191701</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.733378940783638</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.57906349102511</v>
       </c>
       <c r="M11">
-        <v>30.97390111351189</v>
+        <v>0.2937955323782901</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.157513361653344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4623824370842584</v>
+        <v>0.6280798129393759</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.638271809121818</v>
+        <v>0.07944186228139927</v>
       </c>
       <c r="E12">
-        <v>0.5815774460003027</v>
+        <v>0.052217874308921</v>
       </c>
       <c r="F12">
-        <v>5.824245355486084</v>
+        <v>4.877409457334807</v>
       </c>
       <c r="G12">
-        <v>0.0005749338774437903</v>
+        <v>0.0008306991870083887</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.463932297630649</v>
       </c>
       <c r="J12">
-        <v>0.8515718703038857</v>
+        <v>0.09762359321091907</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.80861090221515</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5926066870369766</v>
       </c>
       <c r="M12">
-        <v>32.181741459237</v>
+        <v>0.3009428016525391</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.498570485958965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4596313075685714</v>
+        <v>0.6247480782702723</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6326863726539216</v>
+        <v>0.07899130190445192</v>
       </c>
       <c r="E13">
-        <v>0.5769726946736924</v>
+        <v>0.05196664710220844</v>
       </c>
       <c r="F13">
-        <v>5.739117657314608</v>
+        <v>4.860466034736334</v>
       </c>
       <c r="G13">
-        <v>0.0005771314955070883</v>
+        <v>0.0008311978025361289</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.457437672941239</v>
       </c>
       <c r="J13">
-        <v>0.8428872061227111</v>
+        <v>0.09741028331422363</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.79236398111243</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5896805285370448</v>
       </c>
       <c r="M13">
-        <v>31.91650176498956</v>
+        <v>0.2993991596975434</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.422415914358709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4507162807387601</v>
+        <v>0.6139127239992774</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6149386545560276</v>
+        <v>0.07752781756244786</v>
       </c>
       <c r="E14">
-        <v>0.5622857794794029</v>
+        <v>0.05115035659460787</v>
       </c>
       <c r="F14">
-        <v>5.473615213670541</v>
+        <v>4.805424114265747</v>
       </c>
       <c r="G14">
-        <v>0.0005841344863772857</v>
+        <v>0.0008328258087079574</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.436341343632236</v>
       </c>
       <c r="J14">
-        <v>0.8154776281763958</v>
+        <v>0.09671667042263365</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.739548529967067</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5801735062112527</v>
       </c>
       <c r="M14">
-        <v>31.07107524372242</v>
+        <v>0.2943815999643178</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.184413846050859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4452964271001179</v>
+        <v>0.6072985519894019</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6043948436193887</v>
+        <v>0.07663581680191811</v>
       </c>
       <c r="E15">
-        <v>0.5535217298917843</v>
+        <v>0.05065261346349104</v>
       </c>
       <c r="F15">
-        <v>5.319458803322249</v>
+        <v>4.771871261377299</v>
       </c>
       <c r="G15">
-        <v>0.0005883097822207029</v>
+        <v>0.0008338245224169516</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.423482796725139</v>
       </c>
       <c r="J15">
-        <v>0.7993280921731696</v>
+        <v>0.09629332778447441</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.707325070616974</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5743772156421301</v>
       </c>
       <c r="M15">
-        <v>30.5669691805719</v>
+        <v>0.2913207320298667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.045869410792307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4147663013941099</v>
+        <v>0.56972966082688</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5479618432767381</v>
+        <v>0.07158792464567654</v>
       </c>
       <c r="E16">
-        <v>0.5061598998379822</v>
+        <v>0.04783250645318127</v>
       </c>
       <c r="F16">
-        <v>4.539162682442424</v>
+        <v>4.581965733517677</v>
       </c>
       <c r="G16">
-        <v>0.0006108603679274206</v>
+        <v>0.0008395726595832446</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.350728871543467</v>
       </c>
       <c r="J16">
-        <v>0.714601519933737</v>
+        <v>0.0938885560995395</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.524517925161291</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5415559136953334</v>
       </c>
       <c r="M16">
-        <v>27.84692619978966</v>
+        <v>0.2739635141395667</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.340022780287427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3964280893200538</v>
+        <v>0.5469647979035415</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5160904167045715</v>
+        <v>0.06854395682400138</v>
       </c>
       <c r="E17">
-        <v>0.479100331967544</v>
+        <v>0.04612880325276869</v>
       </c>
       <c r="F17">
-        <v>4.131410388016718</v>
+        <v>4.467467485204025</v>
       </c>
       <c r="G17">
-        <v>0.0006237632831296303</v>
+        <v>0.0008431229865537416</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.306886495139679</v>
       </c>
       <c r="J17">
-        <v>0.6680261174871305</v>
+        <v>0.09243019062027358</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.413918139030386</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5217531731035052</v>
       </c>
       <c r="M17">
-        <v>26.29545674533369</v>
+        <v>0.2634699660143021</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.967600010629681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3859991796619511</v>
+        <v>0.5339688171926298</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4985311713091676</v>
+        <v>0.06681095171543916</v>
       </c>
       <c r="E18">
-        <v>0.4641041718862269</v>
+        <v>0.04515763649861704</v>
       </c>
       <c r="F18">
-        <v>3.916803562888219</v>
+        <v>4.40230364503455</v>
       </c>
       <c r="G18">
-        <v>0.0006309296641789791</v>
+        <v>0.0008451745576580076</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.281943424720751</v>
       </c>
       <c r="J18">
-        <v>0.642758862318189</v>
+        <v>0.09159680376469836</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.350831960424955</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5104774821117388</v>
       </c>
       <c r="M18">
-        <v>25.43627644090168</v>
+        <v>0.2574876926830285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.770403695718556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3824866341472983</v>
+        <v>0.5295848430237697</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4927015013119558</v>
+        <v>0.06622710075674121</v>
       </c>
       <c r="E19">
-        <v>0.4591122174965605</v>
+        <v>0.04483023699135025</v>
       </c>
       <c r="F19">
-        <v>3.847123776113222</v>
+        <v>4.380355272041101</v>
       </c>
       <c r="G19">
-        <v>0.0006333185426316104</v>
+        <v>0.0008458708816147987</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.273543682147888</v>
       </c>
       <c r="J19">
-        <v>0.6344317877714332</v>
+        <v>0.09131549491608837</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.329559053959059</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5066786603017448</v>
       </c>
       <c r="M19">
-        <v>25.15035606097814</v>
+        <v>0.2554710438051124</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.706182584515346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3983674602128815</v>
+        <v>0.5493779059378596</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5193989216379862</v>
+        <v>0.06886611523390229</v>
       </c>
       <c r="E20">
-        <v>0.4819190630238737</v>
+        <v>0.04630923885397031</v>
       </c>
       <c r="F20">
-        <v>4.172643030749413</v>
+        <v>4.479583394854131</v>
       </c>
       <c r="G20">
-        <v>0.000622417729499087</v>
+        <v>0.0008427440783012926</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.311524884807667</v>
       </c>
       <c r="J20">
-        <v>0.6728182037935539</v>
+        <v>0.09258485756637747</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.42563615655078</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5238492082278725</v>
       </c>
       <c r="M20">
-        <v>26.45699770441109</v>
+        <v>0.2645814262266484</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.005389096261752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4533260476200098</v>
+        <v>0.6170905425653075</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6200803961220913</v>
+        <v>0.07795674616278347</v>
       </c>
       <c r="E21">
-        <v>0.5665492832035</v>
+        <v>0.05138964445088057</v>
       </c>
       <c r="F21">
-        <v>5.549755651885221</v>
+        <v>4.821557249719035</v>
       </c>
       <c r="G21">
-        <v>0.0005821024433348675</v>
+        <v>0.0008323473127151981</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.442524499605256</v>
       </c>
       <c r="J21">
-        <v>0.8233893829886654</v>
+        <v>0.09692008064902957</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.755034880127937</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5829602671889376</v>
       </c>
       <c r="M21">
-        <v>31.31641155516706</v>
+        <v>0.2958527458021862</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.25274508010682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4910164641660231</v>
+        <v>0.6623483711461233</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7000365144515115</v>
+        <v>0.08409172330257775</v>
       </c>
       <c r="E22">
-        <v>0.6318953043192082</v>
+        <v>0.05480851958680688</v>
       </c>
       <c r="F22">
-        <v>6.816391882335807</v>
+        <v>5.052184361388129</v>
       </c>
       <c r="G22">
-        <v>0.0005508216815495454</v>
+        <v>0.0008256220245589298</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.530940394535392</v>
       </c>
       <c r="J22">
-        <v>0.9494550806984279</v>
+        <v>0.0998190726928847</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.975912667610771</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6227815768910006</v>
       </c>
       <c r="M22">
-        <v>35.08647196227395</v>
+        <v>0.316841774825285</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.381220185860116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4706831475446478</v>
+        <v>0.6380947008976818</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6554611585530665</v>
+        <v>0.08079780517537927</v>
       </c>
       <c r="E23">
-        <v>0.5956944129024535</v>
+        <v>0.05297370847410932</v>
       </c>
       <c r="F23">
-        <v>6.090975493554652</v>
+        <v>4.92839243691887</v>
       </c>
       <c r="G23">
-        <v>0.0005681890184967564</v>
+        <v>0.0008292058523270554</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.483476306490317</v>
       </c>
       <c r="J23">
-        <v>0.878474182650848</v>
+        <v>0.09826490687833989</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.857467405229386</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6014105514432373</v>
       </c>
       <c r="M23">
-        <v>32.99545803741159</v>
+        <v>0.3055851207773728</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.736724351644682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3974903213309631</v>
+        <v>0.548286655147308</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5179008203875526</v>
+        <v>0.06872041479860513</v>
       </c>
       <c r="E24">
-        <v>0.4806430056282309</v>
+        <v>0.04622763823657827</v>
       </c>
       <c r="F24">
-        <v>4.153941420335315</v>
+        <v>4.474103738082988</v>
       </c>
       <c r="G24">
-        <v>0.000623026818552982</v>
+        <v>0.0008429153499203146</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.309427055072945</v>
       </c>
       <c r="J24">
-        <v>0.6706471044465161</v>
+        <v>0.09251491710327642</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.420336895727729</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5229012525288681</v>
       </c>
       <c r="M24">
-        <v>26.38386517225962</v>
+        <v>0.264078778248102</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.988253152544729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3230655457716978</v>
+        <v>0.4550908325097396</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3994769889008722</v>
+        <v>0.05635843774665972</v>
       </c>
       <c r="E25">
-        <v>0.3784612787896791</v>
+        <v>0.03927694303999729</v>
       </c>
       <c r="F25">
-        <v>2.838564981659232</v>
+        <v>4.010119935401576</v>
       </c>
       <c r="G25">
-        <v>0.0006722761233504456</v>
+        <v>0.0008580740676041539</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.131993227229685</v>
       </c>
       <c r="J25">
-        <v>0.5054308127859457</v>
+        <v>0.08651266069223773</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.968602188453048</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4425103531177967</v>
       </c>
       <c r="M25">
-        <v>20.53489032108013</v>
+        <v>0.2213120298732427</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.763180887502074</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3890025793719047</v>
+        <v>0.6374623883579886</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04766903547265855</v>
+        <v>0.01519605238401311</v>
       </c>
       <c r="E2">
-        <v>0.03434699795261409</v>
+        <v>0.03918841062479927</v>
       </c>
       <c r="F2">
-        <v>3.686392422569611</v>
+        <v>4.864748571270326</v>
       </c>
       <c r="G2">
-        <v>0.0008696263883153102</v>
+        <v>0.002662847161076502</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.008515716694262</v>
+        <v>2.748841524720092</v>
       </c>
       <c r="J2">
-        <v>0.08218719886103365</v>
+        <v>0.1121708070941665</v>
       </c>
       <c r="K2">
-        <v>1.648846908841534</v>
+        <v>1.346030194322822</v>
       </c>
       <c r="L2">
-        <v>0.3862189144219741</v>
+        <v>0.5487130501106776</v>
       </c>
       <c r="M2">
-        <v>0.191189047110452</v>
+        <v>0.2917769988649752</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3455188546138572</v>
+        <v>0.6332289875409884</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04196995954757909</v>
+        <v>0.01328457339317879</v>
       </c>
       <c r="E3">
-        <v>0.0310841329159981</v>
+        <v>0.03809945734230524</v>
       </c>
       <c r="F3">
-        <v>3.476218324390146</v>
+        <v>4.817285731785901</v>
       </c>
       <c r="G3">
-        <v>0.0008777309213813617</v>
+        <v>0.002667864416992662</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.928564638188803</v>
+        <v>2.72863149191835</v>
       </c>
       <c r="J3">
-        <v>0.07928159699500803</v>
+        <v>0.1109687631005603</v>
       </c>
       <c r="K3">
-        <v>1.438376996421027</v>
+        <v>1.303687818532097</v>
       </c>
       <c r="L3">
-        <v>0.3495373257863719</v>
+        <v>0.5432273343945297</v>
       </c>
       <c r="M3">
-        <v>0.171471695752782</v>
+        <v>0.2893252131999198</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3193827529773756</v>
+        <v>0.6310672385716174</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03854479707148784</v>
+        <v>0.01210861245044015</v>
       </c>
       <c r="E4">
-        <v>0.02910809965096917</v>
+        <v>0.03742010295826503</v>
       </c>
       <c r="F4">
-        <v>3.351145160446507</v>
+        <v>4.789513360369313</v>
       </c>
       <c r="G4">
-        <v>0.0008828523143249571</v>
+        <v>0.002671108453819828</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.881096264876305</v>
+        <v>2.716733177454444</v>
       </c>
       <c r="J4">
-        <v>0.07750084751232222</v>
+        <v>0.1102052986379416</v>
       </c>
       <c r="K4">
-        <v>1.311699229099361</v>
+        <v>1.278684324657945</v>
       </c>
       <c r="L4">
-        <v>0.3276388323051691</v>
+        <v>0.5401563956606594</v>
       </c>
       <c r="M4">
-        <v>0.159663724505279</v>
+        <v>0.2879977910819136</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3088627980115177</v>
+        <v>0.6302965998241916</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03716501640570158</v>
+        <v>0.01162876167101956</v>
       </c>
       <c r="E5">
-        <v>0.02830823176578967</v>
+        <v>0.0371405238830409</v>
       </c>
       <c r="F5">
-        <v>3.301098499995092</v>
+        <v>4.77853990042928</v>
       </c>
       <c r="G5">
-        <v>0.0008849770985375893</v>
+        <v>0.002672471654427505</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.862130637242373</v>
+        <v>2.712012688740103</v>
       </c>
       <c r="J5">
-        <v>0.07677474213489255</v>
+        <v>0.1098877446877147</v>
       </c>
       <c r="K5">
-        <v>1.260648115900466</v>
+        <v>1.268744987606908</v>
       </c>
       <c r="L5">
-        <v>0.3188584741463245</v>
+        <v>0.5389797116520185</v>
       </c>
       <c r="M5">
-        <v>0.1549208228890357</v>
+        <v>0.2875016629578475</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3071235594800612</v>
+        <v>0.6301753048851566</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03693679843496511</v>
+        <v>0.01154904265462164</v>
       </c>
       <c r="E6">
-        <v>0.02817569782618534</v>
+        <v>0.03709393360128388</v>
       </c>
       <c r="F6">
-        <v>3.292841787178844</v>
+        <v>4.776738528779617</v>
       </c>
       <c r="G6">
-        <v>0.0008853322344086756</v>
+        <v>0.002672700506968562</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.859003416108294</v>
+        <v>2.711236588974757</v>
       </c>
       <c r="J6">
-        <v>0.07665411161679359</v>
+        <v>0.1098346249829856</v>
       </c>
       <c r="K6">
-        <v>1.252203649584345</v>
+        <v>1.267109644035202</v>
       </c>
       <c r="L6">
-        <v>0.3174087913854038</v>
+        <v>0.5387888384792774</v>
       </c>
       <c r="M6">
-        <v>0.1541372608314227</v>
+        <v>0.2874219890578011</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3192403617145061</v>
+        <v>0.6310563985569644</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0385261274011981</v>
+        <v>0.01210214367102225</v>
       </c>
       <c r="E7">
-        <v>0.02909729245656401</v>
+        <v>0.03741634358690504</v>
       </c>
       <c r="F7">
-        <v>3.350466580658605</v>
+        <v>4.789363976255373</v>
       </c>
       <c r="G7">
-        <v>0.000882880815237815</v>
+        <v>0.002671126671286116</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.880838994604375</v>
+        <v>2.716668996686138</v>
       </c>
       <c r="J7">
-        <v>0.07749105835953252</v>
+        <v>0.1102010421154223</v>
       </c>
       <c r="K7">
-        <v>1.311008512897445</v>
+        <v>1.278549268396773</v>
       </c>
       <c r="L7">
-        <v>0.3275198535756374</v>
+        <v>0.5401402238521342</v>
       </c>
       <c r="M7">
-        <v>0.159599488709631</v>
+        <v>0.28799091863333</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3738857182834892</v>
+        <v>0.6359120436452201</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04568696233023672</v>
+        <v>0.01453741770528438</v>
       </c>
       <c r="E8">
-        <v>0.03321533300849389</v>
+        <v>0.03881514405236963</v>
       </c>
       <c r="F8">
-        <v>3.613050836080788</v>
+        <v>4.848098721022211</v>
       </c>
       <c r="G8">
-        <v>0.0008723914916053968</v>
+        <v>0.002664543274680953</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.980593395477058</v>
+        <v>2.741766941514257</v>
       </c>
       <c r="J8">
-        <v>0.081183864816186</v>
+        <v>0.1117615860920154</v>
       </c>
       <c r="K8">
-        <v>1.575703094728112</v>
+        <v>1.331223799131152</v>
       </c>
       <c r="L8">
-        <v>0.3734331057626434</v>
+        <v>0.5467598559225451</v>
       </c>
       <c r="M8">
-        <v>0.1843246969601999</v>
+        <v>0.2908947113177405</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4860514915102669</v>
+        <v>0.6488962564131953</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06044867614413363</v>
+        <v>0.0192974887023567</v>
       </c>
       <c r="E9">
-        <v>0.04158344849515494</v>
+        <v>0.0414748278791599</v>
       </c>
       <c r="F9">
-        <v>4.163353399075362</v>
+        <v>4.974179287196563</v>
       </c>
       <c r="G9">
-        <v>0.0008529115850053337</v>
+        <v>0.002652923730333173</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.190543099453947</v>
+        <v>2.795051508212026</v>
       </c>
       <c r="J9">
-        <v>0.08851515302999857</v>
+        <v>0.1146224484614855</v>
       </c>
       <c r="K9">
-        <v>2.118515408297895</v>
+        <v>1.442438042531222</v>
       </c>
       <c r="L9">
-        <v>0.4690905295948227</v>
+        <v>0.5621021559393284</v>
       </c>
       <c r="M9">
-        <v>0.2354836519950858</v>
+        <v>0.2979998171700267</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5723409669073192</v>
+        <v>0.6605360475183772</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07193778734131939</v>
+        <v>0.02278942924792204</v>
       </c>
       <c r="E10">
-        <v>0.04802816300383306</v>
+        <v>0.0433807036956626</v>
       </c>
       <c r="F10">
-        <v>4.595127710809749</v>
+        <v>5.073513976841355</v>
       </c>
       <c r="G10">
-        <v>0.0008391687833500661</v>
+        <v>0.002645164874775772</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.355769870418072</v>
+        <v>2.83670567542012</v>
       </c>
       <c r="J10">
-        <v>0.09405575624062124</v>
+        <v>0.1166059384460638</v>
       </c>
       <c r="K10">
-        <v>2.537212536128465</v>
+        <v>1.52902250636194</v>
       </c>
       <c r="L10">
-        <v>0.5438315834645522</v>
+        <v>0.5748189064502611</v>
       </c>
       <c r="M10">
-        <v>0.27516837435887</v>
+        <v>0.3040792565784827</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6126465526153879</v>
+        <v>0.6662853715909307</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07735698064229979</v>
+        <v>0.02437777238441896</v>
       </c>
       <c r="E11">
-        <v>0.05105504092809987</v>
+        <v>0.04423784696952993</v>
       </c>
       <c r="F11">
-        <v>4.798998270936437</v>
+        <v>5.12017274079642</v>
       </c>
       <c r="G11">
-        <v>0.0008330167021828316</v>
+        <v>0.002641802259232421</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.433878660475628</v>
+        <v>2.856205390323382</v>
       </c>
       <c r="J11">
-        <v>0.09663562617191701</v>
+        <v>0.1174832568765094</v>
       </c>
       <c r="K11">
-        <v>2.733378940783638</v>
+        <v>1.569481828201077</v>
       </c>
       <c r="L11">
-        <v>0.57906349102511</v>
+        <v>0.5809191429128333</v>
       </c>
       <c r="M11">
-        <v>0.2937955323782901</v>
+        <v>0.3070314997247863</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6280798129393759</v>
+        <v>0.6685276177808817</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07944186228139927</v>
+        <v>0.02497928185291443</v>
       </c>
       <c r="E12">
-        <v>0.052217874308921</v>
+        <v>0.04456105247916575</v>
       </c>
       <c r="F12">
-        <v>4.877409457334807</v>
+        <v>5.138053529298702</v>
       </c>
       <c r="G12">
-        <v>0.0008306991870083887</v>
+        <v>0.002640552787025489</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.463932297630649</v>
+        <v>2.863669038000907</v>
       </c>
       <c r="J12">
-        <v>0.09762359321091907</v>
+        <v>0.1178119355320799</v>
       </c>
       <c r="K12">
-        <v>2.80861090221515</v>
+        <v>1.584957512729176</v>
       </c>
       <c r="L12">
-        <v>0.5926066870369766</v>
+        <v>0.5832745586738071</v>
       </c>
       <c r="M12">
-        <v>0.3009428016525391</v>
+        <v>0.308176257589345</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6247480782702723</v>
+        <v>0.6680418181260563</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07899130190445192</v>
+        <v>0.02484973334098584</v>
       </c>
       <c r="E13">
-        <v>0.05196664710220844</v>
+        <v>0.04449150494540888</v>
       </c>
       <c r="F13">
-        <v>4.860466034736334</v>
+        <v>5.134193137303157</v>
       </c>
       <c r="G13">
-        <v>0.0008311978025361289</v>
+        <v>0.002640820823260779</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.457437672941239</v>
+        <v>2.862058066190883</v>
       </c>
       <c r="J13">
-        <v>0.09741028331422363</v>
+        <v>0.117741305479349</v>
       </c>
       <c r="K13">
-        <v>2.79236398111243</v>
+        <v>1.581617662049297</v>
       </c>
       <c r="L13">
-        <v>0.5896805285370448</v>
+        <v>0.5827652583114826</v>
       </c>
       <c r="M13">
-        <v>0.2993991596975434</v>
+        <v>0.3079285217895134</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6139127239992774</v>
+        <v>0.6664685390935574</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07752781756244786</v>
+        <v>0.02442725780878163</v>
       </c>
       <c r="E14">
-        <v>0.05115035659460787</v>
+        <v>0.04426446462758804</v>
       </c>
       <c r="F14">
-        <v>4.805424114265747</v>
+        <v>5.121639549147204</v>
       </c>
       <c r="G14">
-        <v>0.0008328258087079574</v>
+        <v>0.002641698986671686</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.436341343632236</v>
+        <v>2.856817833554814</v>
       </c>
       <c r="J14">
-        <v>0.09671667042263365</v>
+        <v>0.1175103681859238</v>
       </c>
       <c r="K14">
-        <v>2.739548529967067</v>
+        <v>1.570751920275882</v>
       </c>
       <c r="L14">
-        <v>0.5801735062112527</v>
+        <v>0.5811120144563233</v>
       </c>
       <c r="M14">
-        <v>0.2943815999643178</v>
+        <v>0.3071251425830965</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6072985519894019</v>
+        <v>0.6655133317177331</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07663581680191811</v>
+        <v>0.02416848616788769</v>
       </c>
       <c r="E15">
-        <v>0.05065261346349104</v>
+        <v>0.04412521787590507</v>
       </c>
       <c r="F15">
-        <v>4.771871261377299</v>
+        <v>5.113977757458031</v>
       </c>
       <c r="G15">
-        <v>0.0008338245224169516</v>
+        <v>0.002642239992857361</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.423482796725139</v>
+        <v>2.853618405456018</v>
       </c>
       <c r="J15">
-        <v>0.09629332778447441</v>
+        <v>0.1173684525215801</v>
       </c>
       <c r="K15">
-        <v>2.707325070616974</v>
+        <v>1.564116491187576</v>
       </c>
       <c r="L15">
-        <v>0.5743772156421301</v>
+        <v>0.5801052672078697</v>
       </c>
       <c r="M15">
-        <v>0.2913207320298667</v>
+        <v>0.3066365396995536</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.56972966082688</v>
+        <v>0.6601694381365633</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07158792464567654</v>
+        <v>0.02268562932437135</v>
       </c>
       <c r="E16">
-        <v>0.04783250645318127</v>
+        <v>0.04332449260981264</v>
       </c>
       <c r="F16">
-        <v>4.581965733517677</v>
+        <v>5.070494367503045</v>
       </c>
       <c r="G16">
-        <v>0.0008395726595832446</v>
+        <v>0.002645387977953224</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.350728871543467</v>
+        <v>2.835442436156725</v>
       </c>
       <c r="J16">
-        <v>0.0938885560995395</v>
+        <v>0.1165481051621082</v>
       </c>
       <c r="K16">
-        <v>2.524517925161291</v>
+        <v>1.526400002271686</v>
       </c>
       <c r="L16">
-        <v>0.5415559136953334</v>
+        <v>0.5744265905668868</v>
       </c>
       <c r="M16">
-        <v>0.2739635141395667</v>
+        <v>0.3038900737937666</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5469647979035415</v>
+        <v>0.6570073313927765</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06854395682400138</v>
+        <v>0.02177594755746526</v>
       </c>
       <c r="E17">
-        <v>0.04612880325276869</v>
+        <v>0.0428307795196794</v>
       </c>
       <c r="F17">
-        <v>4.467467485204025</v>
+        <v>5.04419588482736</v>
       </c>
       <c r="G17">
-        <v>0.0008431229865537416</v>
+        <v>0.00264736182846335</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.306886495139679</v>
+        <v>2.824433405767678</v>
       </c>
       <c r="J17">
-        <v>0.09243019062027358</v>
+        <v>0.1160384854787413</v>
       </c>
       <c r="K17">
-        <v>2.413918139030386</v>
+        <v>1.503536989284527</v>
       </c>
       <c r="L17">
-        <v>0.5217531731035052</v>
+        <v>0.5710236994184186</v>
       </c>
       <c r="M17">
-        <v>0.2634699660143021</v>
+        <v>0.3022529916289187</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5339688171926298</v>
+        <v>0.6552313478782708</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06681095171543916</v>
+        <v>0.02125270410304836</v>
       </c>
       <c r="E18">
-        <v>0.04515763649861704</v>
+        <v>0.04254587932850207</v>
       </c>
       <c r="F18">
-        <v>4.40230364503455</v>
+        <v>5.029208105575691</v>
       </c>
       <c r="G18">
-        <v>0.0008451745576580076</v>
+        <v>0.002648512854520835</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.281943424720751</v>
+        <v>2.818153150228113</v>
       </c>
       <c r="J18">
-        <v>0.09159680376469836</v>
+        <v>0.1157430114024613</v>
       </c>
       <c r="K18">
-        <v>2.350831960424955</v>
+        <v>1.490487622253568</v>
       </c>
       <c r="L18">
-        <v>0.5104774821117388</v>
+        <v>0.5690961231757399</v>
       </c>
       <c r="M18">
-        <v>0.2574876926830285</v>
+        <v>0.3013289581203757</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5295848430237697</v>
+        <v>0.654637384362502</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06622710075674121</v>
+        <v>0.0210755378157117</v>
       </c>
       <c r="E19">
-        <v>0.04483023699135025</v>
+        <v>0.04244925615902595</v>
       </c>
       <c r="F19">
-        <v>4.380355272041101</v>
+        <v>5.024157255022146</v>
       </c>
       <c r="G19">
-        <v>0.0008458708816147987</v>
+        <v>0.002648905275596271</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.273543682147888</v>
+        <v>2.8160356596009</v>
       </c>
       <c r="J19">
-        <v>0.09131549491608837</v>
+        <v>0.1156425630991382</v>
       </c>
       <c r="K19">
-        <v>2.329559053959059</v>
+        <v>1.486086633425117</v>
       </c>
       <c r="L19">
-        <v>0.5066786603017448</v>
+        <v>0.5684485746573955</v>
       </c>
       <c r="M19">
-        <v>0.2554710438051124</v>
+        <v>0.3010191155402353</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5493779059378596</v>
+        <v>0.6573395175157941</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06886611523390229</v>
+        <v>0.02187278621280342</v>
       </c>
       <c r="E20">
-        <v>0.04630923885397031</v>
+        <v>0.04288343202676081</v>
       </c>
       <c r="F20">
-        <v>4.479583394854131</v>
+        <v>5.046981073702028</v>
       </c>
       <c r="G20">
-        <v>0.0008427440783012926</v>
+        <v>0.002647150082510005</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.311524884807667</v>
+        <v>2.825599967737702</v>
       </c>
       <c r="J20">
-        <v>0.09258485756637747</v>
+        <v>0.1160929786667886</v>
       </c>
       <c r="K20">
-        <v>2.42563615655078</v>
+        <v>1.505960356476237</v>
       </c>
       <c r="L20">
-        <v>0.5238492082278725</v>
+        <v>0.5713828712469819</v>
       </c>
       <c r="M20">
-        <v>0.2645814262266484</v>
+        <v>0.3024254433683708</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6170905425653075</v>
+        <v>0.6669288842413721</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07795674616278347</v>
+        <v>0.02455134758280053</v>
       </c>
       <c r="E21">
-        <v>0.05138964445088057</v>
+        <v>0.0443311888953648</v>
       </c>
       <c r="F21">
-        <v>4.821557249719035</v>
+        <v>5.125321080297624</v>
       </c>
       <c r="G21">
-        <v>0.0008323473127151981</v>
+        <v>0.002641440401861792</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.442524499605256</v>
+        <v>2.858354856177812</v>
       </c>
       <c r="J21">
-        <v>0.09692008064902957</v>
+        <v>0.1175782958221951</v>
       </c>
       <c r="K21">
-        <v>2.755034880127937</v>
+        <v>1.573939251519732</v>
       </c>
       <c r="L21">
-        <v>0.5829602671889376</v>
+        <v>0.5815963800375243</v>
       </c>
       <c r="M21">
-        <v>0.2958527458021862</v>
+        <v>0.307360387263202</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6623483711461233</v>
+        <v>0.673575450241799</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08409172330257775</v>
+        <v>0.02630219472391104</v>
       </c>
       <c r="E22">
-        <v>0.05480851958680688</v>
+        <v>0.04526937997463243</v>
       </c>
       <c r="F22">
-        <v>5.052184361388129</v>
+        <v>5.177757533864792</v>
       </c>
       <c r="G22">
-        <v>0.0008256220245589298</v>
+        <v>0.00263784791221321</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.530940394535392</v>
+        <v>2.880225761083807</v>
       </c>
       <c r="J22">
-        <v>0.0998190726928847</v>
+        <v>0.1185284094697643</v>
       </c>
       <c r="K22">
-        <v>2.975912667610771</v>
+        <v>1.619268871505199</v>
       </c>
       <c r="L22">
-        <v>0.6227815768910006</v>
+        <v>0.5885360816814824</v>
       </c>
       <c r="M22">
-        <v>0.316841774825285</v>
+        <v>0.3107418972582821</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6380947008976818</v>
+        <v>0.6699934160507439</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08079780517537927</v>
+        <v>0.02536769125444494</v>
       </c>
       <c r="E23">
-        <v>0.05297370847410932</v>
+        <v>0.04476936850974411</v>
       </c>
       <c r="F23">
-        <v>4.92839243691887</v>
+        <v>5.149657846214239</v>
       </c>
       <c r="G23">
-        <v>0.0008292058523270554</v>
+        <v>0.002639752603998964</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.483476306490317</v>
+        <v>2.868510322706058</v>
       </c>
       <c r="J23">
-        <v>0.09826490687833989</v>
+        <v>0.1180231868963002</v>
       </c>
       <c r="K23">
-        <v>2.857467405229386</v>
+        <v>1.594992938124818</v>
       </c>
       <c r="L23">
-        <v>0.6014105514432373</v>
+        <v>0.5848080069359582</v>
       </c>
       <c r="M23">
-        <v>0.3055851207773728</v>
+        <v>0.3089228373611661</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.548286655147308</v>
+        <v>0.6571892054721218</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06872041479860513</v>
+        <v>0.02182900625656004</v>
       </c>
       <c r="E24">
-        <v>0.04622763823657827</v>
+        <v>0.04285963112738145</v>
       </c>
       <c r="F24">
-        <v>4.474103738082988</v>
+        <v>5.045721480021768</v>
       </c>
       <c r="G24">
-        <v>0.0008429153499203146</v>
+        <v>0.002647245762198058</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.309427055072945</v>
+        <v>2.825072412508888</v>
       </c>
       <c r="J24">
-        <v>0.09251491710327642</v>
+        <v>0.1160683500477671</v>
       </c>
       <c r="K24">
-        <v>2.420336895727729</v>
+        <v>1.504864456660613</v>
       </c>
       <c r="L24">
-        <v>0.5229012525288681</v>
+        <v>0.5712203999855774</v>
       </c>
       <c r="M24">
-        <v>0.264078778248102</v>
+        <v>0.3023474245241289</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4550908325097396</v>
+        <v>0.6450141124998652</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05635843774665972</v>
+        <v>0.01801099314594978</v>
       </c>
       <c r="E25">
-        <v>0.03927694303999729</v>
+        <v>0.04076396698524754</v>
       </c>
       <c r="F25">
-        <v>4.010119935401576</v>
+        <v>4.93889814968739</v>
       </c>
       <c r="G25">
-        <v>0.0008580740676041539</v>
+        <v>0.002655929871056249</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.131993227229685</v>
+        <v>2.780198446950322</v>
       </c>
       <c r="J25">
-        <v>0.08651266069223773</v>
+        <v>0.1138695274829793</v>
       </c>
       <c r="K25">
-        <v>1.968602188453048</v>
+        <v>1.411498957520564</v>
       </c>
       <c r="L25">
-        <v>0.4425103531177967</v>
+        <v>0.5576983372725834</v>
       </c>
       <c r="M25">
-        <v>0.2213120298732427</v>
+        <v>0.2959267465962938</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6374623883579886</v>
+        <v>0.3890025793720042</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01519605238401311</v>
+        <v>0.04766903547260881</v>
       </c>
       <c r="E2">
-        <v>0.03918841062479927</v>
+        <v>0.03434699795257323</v>
       </c>
       <c r="F2">
-        <v>4.864748571270326</v>
+        <v>3.686392422569668</v>
       </c>
       <c r="G2">
-        <v>0.002662847161076502</v>
+        <v>0.0008696263883710973</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.748841524720092</v>
+        <v>2.008515716694291</v>
       </c>
       <c r="J2">
-        <v>0.1121708070941665</v>
+        <v>0.08218719886104431</v>
       </c>
       <c r="K2">
-        <v>1.346030194322822</v>
+        <v>1.648846908841477</v>
       </c>
       <c r="L2">
-        <v>0.5487130501106776</v>
+        <v>0.3862189144220309</v>
       </c>
       <c r="M2">
-        <v>0.2917769988649752</v>
+        <v>0.1911890471104485</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6332289875409884</v>
+        <v>0.3455188546139851</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01328457339317879</v>
+        <v>0.04196995954769989</v>
       </c>
       <c r="E3">
-        <v>0.03809945734230524</v>
+        <v>0.03108413291596612</v>
       </c>
       <c r="F3">
-        <v>4.817285731785901</v>
+        <v>3.476218324390146</v>
       </c>
       <c r="G3">
-        <v>0.002667864416992662</v>
+        <v>0.0008777309215046528</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.72863149191835</v>
+        <v>1.928564638188789</v>
       </c>
       <c r="J3">
-        <v>0.1109687631005603</v>
+        <v>0.07928159699500448</v>
       </c>
       <c r="K3">
-        <v>1.303687818532097</v>
+        <v>1.438376996421084</v>
       </c>
       <c r="L3">
-        <v>0.5432273343945297</v>
+        <v>0.349537325786244</v>
       </c>
       <c r="M3">
-        <v>0.2893252131999198</v>
+        <v>0.1714716957527713</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6310672385716174</v>
+        <v>0.319382752977333</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01210861245044015</v>
+        <v>0.03854479707123204</v>
       </c>
       <c r="E4">
-        <v>0.03742010295826503</v>
+        <v>0.02910809965102246</v>
       </c>
       <c r="F4">
-        <v>4.789513360369313</v>
+        <v>3.351145160446464</v>
       </c>
       <c r="G4">
-        <v>0.002671108453819828</v>
+        <v>0.0008828523142608761</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.716733177454444</v>
+        <v>1.881096264876305</v>
       </c>
       <c r="J4">
-        <v>0.1102052986379416</v>
+        <v>0.07750084751223518</v>
       </c>
       <c r="K4">
-        <v>1.278684324657945</v>
+        <v>1.311699229099418</v>
       </c>
       <c r="L4">
-        <v>0.5401563956606594</v>
+        <v>0.3276388323051123</v>
       </c>
       <c r="M4">
-        <v>0.2879977910819136</v>
+        <v>0.1596637245052968</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6302965998241916</v>
+        <v>0.3088627980115746</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01162876167101956</v>
+        <v>0.03716501640556658</v>
       </c>
       <c r="E5">
-        <v>0.0371405238830409</v>
+        <v>0.02830823176575059</v>
       </c>
       <c r="F5">
-        <v>4.77853990042928</v>
+        <v>3.301098499995078</v>
       </c>
       <c r="G5">
-        <v>0.002672471654427505</v>
+        <v>0.0008849770985932213</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.712012688740103</v>
+        <v>1.862130637242373</v>
       </c>
       <c r="J5">
-        <v>0.1098877446877147</v>
+        <v>0.07677474213488367</v>
       </c>
       <c r="K5">
-        <v>1.268744987606908</v>
+        <v>1.260648115900409</v>
       </c>
       <c r="L5">
-        <v>0.5389797116520185</v>
+        <v>0.3188584741462677</v>
       </c>
       <c r="M5">
-        <v>0.2875016629578475</v>
+        <v>0.1549208228890215</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6301753048851566</v>
+        <v>0.3071235594800044</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01154904265462164</v>
+        <v>0.0369367984348159</v>
       </c>
       <c r="E6">
-        <v>0.03709393360128388</v>
+        <v>0.02817569782617824</v>
       </c>
       <c r="F6">
-        <v>4.776738528779617</v>
+        <v>3.292841787178887</v>
       </c>
       <c r="G6">
-        <v>0.002672700506968562</v>
+        <v>0.0008853322345248255</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.711236588974757</v>
+        <v>1.859003416108294</v>
       </c>
       <c r="J6">
-        <v>0.1098346249829856</v>
+        <v>0.07665411161680957</v>
       </c>
       <c r="K6">
-        <v>1.267109644035202</v>
+        <v>1.252203649584345</v>
       </c>
       <c r="L6">
-        <v>0.5387888384792774</v>
+        <v>0.3174087913854322</v>
       </c>
       <c r="M6">
-        <v>0.2874219890578011</v>
+        <v>0.1541372608314333</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6310563985569644</v>
+        <v>0.3192403617145629</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01210214367102225</v>
+        <v>0.03852612740083572</v>
       </c>
       <c r="E7">
-        <v>0.03741634358690504</v>
+        <v>0.02909729245659243</v>
       </c>
       <c r="F7">
-        <v>4.789363976255373</v>
+        <v>3.350466580658605</v>
       </c>
       <c r="G7">
-        <v>0.002671126671286116</v>
+        <v>0.0008828808152983055</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.716668996686138</v>
+        <v>1.88083899460436</v>
       </c>
       <c r="J7">
-        <v>0.1102010421154223</v>
+        <v>0.07749105835951653</v>
       </c>
       <c r="K7">
-        <v>1.278549268396773</v>
+        <v>1.311008512897388</v>
       </c>
       <c r="L7">
-        <v>0.5401402238521342</v>
+        <v>0.3275198535756374</v>
       </c>
       <c r="M7">
-        <v>0.28799091863333</v>
+        <v>0.1595994887096346</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6359120436452201</v>
+        <v>0.3738857182835602</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01453741770528438</v>
+        <v>0.04568696233022962</v>
       </c>
       <c r="E8">
-        <v>0.03881514405236963</v>
+        <v>0.03321533300851698</v>
       </c>
       <c r="F8">
-        <v>4.848098721022211</v>
+        <v>3.613050836080731</v>
       </c>
       <c r="G8">
-        <v>0.002664543274680953</v>
+        <v>0.0008723914915349187</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.741766941514257</v>
+        <v>1.980593395477072</v>
       </c>
       <c r="J8">
-        <v>0.1117615860920154</v>
+        <v>0.0811838648161487</v>
       </c>
       <c r="K8">
-        <v>1.331223799131152</v>
+        <v>1.575703094728112</v>
       </c>
       <c r="L8">
-        <v>0.5467598559225451</v>
+        <v>0.3734331057627287</v>
       </c>
       <c r="M8">
-        <v>0.2908947113177405</v>
+        <v>0.1843246969601964</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6488962564131953</v>
+        <v>0.4860514915103522</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0192974887023567</v>
+        <v>0.06044867614403415</v>
       </c>
       <c r="E9">
-        <v>0.0414748278791599</v>
+        <v>0.04158344849518869</v>
       </c>
       <c r="F9">
-        <v>4.974179287196563</v>
+        <v>4.163353399075305</v>
       </c>
       <c r="G9">
-        <v>0.002652923730333173</v>
+        <v>0.0008529115850043155</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.795051508212026</v>
+        <v>2.190543099453919</v>
       </c>
       <c r="J9">
-        <v>0.1146224484614855</v>
+        <v>0.08851515303005719</v>
       </c>
       <c r="K9">
-        <v>1.442438042531222</v>
+        <v>2.118515408297839</v>
       </c>
       <c r="L9">
-        <v>0.5621021559393284</v>
+        <v>0.4690905295949364</v>
       </c>
       <c r="M9">
-        <v>0.2979998171700267</v>
+        <v>0.2354836519950823</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6605360475183772</v>
+        <v>0.5723409669075465</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02278942924792204</v>
+        <v>0.07193778734152545</v>
       </c>
       <c r="E10">
-        <v>0.0433807036956626</v>
+        <v>0.04802816300389168</v>
       </c>
       <c r="F10">
-        <v>5.073513976841355</v>
+        <v>4.59512771080972</v>
       </c>
       <c r="G10">
-        <v>0.002645164874775772</v>
+        <v>0.0008391687832675688</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.83670567542012</v>
+        <v>2.355769870418086</v>
       </c>
       <c r="J10">
-        <v>0.1166059384460638</v>
+        <v>0.09405575624075269</v>
       </c>
       <c r="K10">
-        <v>1.52902250636194</v>
+        <v>2.53721253612855</v>
       </c>
       <c r="L10">
-        <v>0.5748189064502611</v>
+        <v>0.5438315834645095</v>
       </c>
       <c r="M10">
-        <v>0.3040792565784827</v>
+        <v>0.2751683743588913</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6662853715909307</v>
+        <v>0.6126465526153595</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02437777238441896</v>
+        <v>0.07735698064226426</v>
       </c>
       <c r="E11">
-        <v>0.04423784696952993</v>
+        <v>0.05105504092818691</v>
       </c>
       <c r="F11">
-        <v>5.12017274079642</v>
+        <v>4.798998270936465</v>
       </c>
       <c r="G11">
-        <v>0.002641802259232421</v>
+        <v>0.0008330167021771527</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.856205390323382</v>
+        <v>2.433878660475671</v>
       </c>
       <c r="J11">
-        <v>0.1174832568765094</v>
+        <v>0.09663562617189747</v>
       </c>
       <c r="K11">
-        <v>1.569481828201077</v>
+        <v>2.733378940783609</v>
       </c>
       <c r="L11">
-        <v>0.5809191429128333</v>
+        <v>0.5790634910252379</v>
       </c>
       <c r="M11">
-        <v>0.3070314997247863</v>
+        <v>0.2937955323783044</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6685276177808817</v>
+        <v>0.6280798129390917</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02497928185291443</v>
+        <v>0.07944186228176875</v>
       </c>
       <c r="E12">
-        <v>0.04456105247916575</v>
+        <v>0.05221787430886948</v>
       </c>
       <c r="F12">
-        <v>5.138053529298702</v>
+        <v>4.877409457334778</v>
       </c>
       <c r="G12">
-        <v>0.002640552787025489</v>
+        <v>0.0008306991869802795</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.863669038000907</v>
+        <v>2.463932297630677</v>
       </c>
       <c r="J12">
-        <v>0.1178119355320799</v>
+        <v>0.09762359321111802</v>
       </c>
       <c r="K12">
-        <v>1.584957512729176</v>
+        <v>2.808610902215236</v>
       </c>
       <c r="L12">
-        <v>0.5832745586738071</v>
+        <v>0.5926066870368771</v>
       </c>
       <c r="M12">
-        <v>0.308176257589345</v>
+        <v>0.3009428016525391</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6680418181260563</v>
+        <v>0.6247480782702439</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02484973334098584</v>
+        <v>0.07899130190425296</v>
       </c>
       <c r="E13">
-        <v>0.04449150494540888</v>
+        <v>0.05196664710222265</v>
       </c>
       <c r="F13">
-        <v>5.134193137303157</v>
+        <v>4.86046603473639</v>
       </c>
       <c r="G13">
-        <v>0.002640820823260779</v>
+        <v>0.0008311978024493604</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.862058066190883</v>
+        <v>2.457437672941225</v>
       </c>
       <c r="J13">
-        <v>0.117741305479349</v>
+        <v>0.09741028331422008</v>
       </c>
       <c r="K13">
-        <v>1.581617662049297</v>
+        <v>2.792363981112516</v>
       </c>
       <c r="L13">
-        <v>0.5827652583114826</v>
+        <v>0.5896805285369595</v>
       </c>
       <c r="M13">
-        <v>0.3079285217895134</v>
+        <v>0.2993991596975434</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6664685390935574</v>
+        <v>0.6139127239992774</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02442725780878163</v>
+        <v>0.07752781756228444</v>
       </c>
       <c r="E14">
-        <v>0.04426446462758804</v>
+        <v>0.05115035659452616</v>
       </c>
       <c r="F14">
-        <v>5.121639549147204</v>
+        <v>4.805424114265719</v>
       </c>
       <c r="G14">
-        <v>0.002641698986671686</v>
+        <v>0.0008328258087061647</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.856817833554814</v>
+        <v>2.436341343632236</v>
       </c>
       <c r="J14">
-        <v>0.1175103681859238</v>
+        <v>0.09671667042280596</v>
       </c>
       <c r="K14">
-        <v>1.570751920275882</v>
+        <v>2.739548529967038</v>
       </c>
       <c r="L14">
-        <v>0.5811120144563233</v>
+        <v>0.5801735062112101</v>
       </c>
       <c r="M14">
-        <v>0.3071251425830965</v>
+        <v>0.2943815999643178</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6655133317177331</v>
+        <v>0.6072985519895155</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02416848616788769</v>
+        <v>0.07663581680207443</v>
       </c>
       <c r="E15">
-        <v>0.04412521787590507</v>
+        <v>0.05065261346349104</v>
       </c>
       <c r="F15">
-        <v>5.113977757458031</v>
+        <v>4.771871261377271</v>
       </c>
       <c r="G15">
-        <v>0.002642239992857361</v>
+        <v>0.0008338245224152457</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.853618405456018</v>
+        <v>2.423482796725139</v>
       </c>
       <c r="J15">
-        <v>0.1173684525215801</v>
+        <v>0.09629332778439803</v>
       </c>
       <c r="K15">
-        <v>1.564116491187576</v>
+        <v>2.707325070616974</v>
       </c>
       <c r="L15">
-        <v>0.5801052672078697</v>
+        <v>0.5743772156421016</v>
       </c>
       <c r="M15">
-        <v>0.3066365396995536</v>
+        <v>0.2913207320298596</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6601694381365633</v>
+        <v>0.5697296608270506</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02268562932437135</v>
+        <v>0.07158792464610997</v>
       </c>
       <c r="E16">
-        <v>0.04332449260981264</v>
+        <v>0.04783250645321679</v>
       </c>
       <c r="F16">
-        <v>5.070494367503045</v>
+        <v>4.581965733517649</v>
       </c>
       <c r="G16">
-        <v>0.002645387977953224</v>
+        <v>0.0008395726595773478</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.835442436156725</v>
+        <v>2.350728871543438</v>
       </c>
       <c r="J16">
-        <v>0.1165481051621082</v>
+        <v>0.0938885560994791</v>
       </c>
       <c r="K16">
-        <v>1.526400002271686</v>
+        <v>2.524517925161234</v>
       </c>
       <c r="L16">
-        <v>0.5744265905668868</v>
+        <v>0.5415559136953902</v>
       </c>
       <c r="M16">
-        <v>0.3038900737937666</v>
+        <v>0.2739635141395738</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6570073313927765</v>
+        <v>0.5469647979035699</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02177594755746526</v>
+        <v>0.06854395682445613</v>
       </c>
       <c r="E17">
-        <v>0.0428307795196794</v>
+        <v>0.04612880325275803</v>
       </c>
       <c r="F17">
-        <v>5.04419588482736</v>
+        <v>4.467467485204082</v>
       </c>
       <c r="G17">
-        <v>0.00264736182846335</v>
+        <v>0.0008431229865495227</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.824433405767678</v>
+        <v>2.306886495139693</v>
       </c>
       <c r="J17">
-        <v>0.1160384854787413</v>
+        <v>0.09243019062015101</v>
       </c>
       <c r="K17">
-        <v>1.503536989284527</v>
+        <v>2.413918139030443</v>
       </c>
       <c r="L17">
-        <v>0.5710236994184186</v>
+        <v>0.5217531731035052</v>
       </c>
       <c r="M17">
-        <v>0.3022529916289187</v>
+        <v>0.2634699660143269</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6552313478782708</v>
+        <v>0.5339688171926298</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02125270410304836</v>
+        <v>0.06681095171544627</v>
       </c>
       <c r="E18">
-        <v>0.04254587932850207</v>
+        <v>0.04515763649864901</v>
       </c>
       <c r="F18">
-        <v>5.029208105575691</v>
+        <v>4.402303645034522</v>
       </c>
       <c r="G18">
-        <v>0.002648512854520835</v>
+        <v>0.000845174557809135</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.818153150228113</v>
+        <v>2.281943424720737</v>
       </c>
       <c r="J18">
-        <v>0.1157430114024613</v>
+        <v>0.09159680376476231</v>
       </c>
       <c r="K18">
-        <v>1.490487622253568</v>
+        <v>2.35083196042504</v>
       </c>
       <c r="L18">
-        <v>0.5690961231757399</v>
+        <v>0.5104774821116109</v>
       </c>
       <c r="M18">
-        <v>0.3013289581203757</v>
+        <v>0.2574876926830285</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.654637384362502</v>
+        <v>0.5295848430238266</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0210755378157117</v>
+        <v>0.066227100756862</v>
       </c>
       <c r="E19">
-        <v>0.04244925615902595</v>
+        <v>0.04483023699128097</v>
       </c>
       <c r="F19">
-        <v>5.024157255022146</v>
+        <v>4.380355272041129</v>
       </c>
       <c r="G19">
-        <v>0.002648905275596271</v>
+        <v>0.0008458708816092564</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.8160356596009</v>
+        <v>2.273543682147888</v>
       </c>
       <c r="J19">
-        <v>0.1156425630991382</v>
+        <v>0.09131549491609192</v>
       </c>
       <c r="K19">
-        <v>1.486086633425117</v>
+        <v>2.329559053958945</v>
       </c>
       <c r="L19">
-        <v>0.5684485746573955</v>
+        <v>0.5066786603016169</v>
       </c>
       <c r="M19">
-        <v>0.3010191155402353</v>
+        <v>0.2554710438051089</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6573395175157941</v>
+        <v>0.549377905937888</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02187278621280342</v>
+        <v>0.06886611523340491</v>
       </c>
       <c r="E20">
-        <v>0.04288343202676081</v>
+        <v>0.04630923885399696</v>
       </c>
       <c r="F20">
-        <v>5.046981073702028</v>
+        <v>4.479583394854131</v>
       </c>
       <c r="G20">
-        <v>0.002647150082510005</v>
+        <v>0.0008427440782224167</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.825599967737702</v>
+        <v>2.311524884807696</v>
       </c>
       <c r="J20">
-        <v>0.1160929786667886</v>
+        <v>0.092584857566548</v>
       </c>
       <c r="K20">
-        <v>1.505960356476237</v>
+        <v>2.425636156550752</v>
       </c>
       <c r="L20">
-        <v>0.5713828712469819</v>
+        <v>0.5238492082279578</v>
       </c>
       <c r="M20">
-        <v>0.3024254433683708</v>
+        <v>0.2645814262266448</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6669288842413721</v>
+        <v>0.617090542565478</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02455134758280053</v>
+        <v>0.07795674616251347</v>
       </c>
       <c r="E21">
-        <v>0.0443311888953648</v>
+        <v>0.05138964445085925</v>
       </c>
       <c r="F21">
-        <v>5.125321080297624</v>
+        <v>4.821557249719064</v>
       </c>
       <c r="G21">
-        <v>0.002641440401861792</v>
+        <v>0.0008323473126271074</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.858354856177812</v>
+        <v>2.442524499605256</v>
       </c>
       <c r="J21">
-        <v>0.1175782958221951</v>
+        <v>0.09692008064904201</v>
       </c>
       <c r="K21">
-        <v>1.573939251519732</v>
+        <v>2.755034880128079</v>
       </c>
       <c r="L21">
-        <v>0.5815963800375243</v>
+        <v>0.5829602671889234</v>
       </c>
       <c r="M21">
-        <v>0.307360387263202</v>
+        <v>0.2958527458021791</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.673575450241799</v>
+        <v>0.662348371146237</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02630219472391104</v>
+        <v>0.0840917233027767</v>
       </c>
       <c r="E22">
-        <v>0.04526937997463243</v>
+        <v>0.05480851958678912</v>
       </c>
       <c r="F22">
-        <v>5.177757533864792</v>
+        <v>5.052184361388157</v>
       </c>
       <c r="G22">
-        <v>0.00263784791221321</v>
+        <v>0.0008256220245527173</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.880225761083807</v>
+        <v>2.530940394535421</v>
       </c>
       <c r="J22">
-        <v>0.1185284094697643</v>
+        <v>0.09981907269304457</v>
       </c>
       <c r="K22">
-        <v>1.619268871505199</v>
+        <v>2.975912667610828</v>
       </c>
       <c r="L22">
-        <v>0.5885360816814824</v>
+        <v>0.6227815768907448</v>
       </c>
       <c r="M22">
-        <v>0.3107418972582821</v>
+        <v>0.3168417748252921</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6699934160507439</v>
+        <v>0.638094700897625</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02536769125444494</v>
+        <v>0.08079780517535795</v>
       </c>
       <c r="E23">
-        <v>0.04476936850974411</v>
+        <v>0.05297370847413063</v>
       </c>
       <c r="F23">
-        <v>5.149657846214239</v>
+        <v>4.928392436918841</v>
       </c>
       <c r="G23">
-        <v>0.002639752603998964</v>
+        <v>0.0008292058523243908</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.868510322706058</v>
+        <v>2.483476306490317</v>
       </c>
       <c r="J23">
-        <v>0.1180231868963002</v>
+        <v>0.09826490687830436</v>
       </c>
       <c r="K23">
-        <v>1.594992938124818</v>
+        <v>2.857467405229499</v>
       </c>
       <c r="L23">
-        <v>0.5848080069359582</v>
+        <v>0.6014105514432231</v>
       </c>
       <c r="M23">
-        <v>0.3089228373611661</v>
+        <v>0.305585120777387</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6571892054721218</v>
+        <v>0.5482866551471091</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02182900625656004</v>
+        <v>0.06872041479879698</v>
       </c>
       <c r="E24">
-        <v>0.04285963112738145</v>
+        <v>0.04622763823659071</v>
       </c>
       <c r="F24">
-        <v>5.045721480021768</v>
+        <v>4.47410373808296</v>
       </c>
       <c r="G24">
-        <v>0.002647245762198058</v>
+        <v>0.0008429153500299097</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.825072412508888</v>
+        <v>2.309427055072987</v>
       </c>
       <c r="J24">
-        <v>0.1160683500477671</v>
+        <v>0.09251491710329773</v>
       </c>
       <c r="K24">
-        <v>1.504864456660613</v>
+        <v>2.420336895727672</v>
       </c>
       <c r="L24">
-        <v>0.5712203999855774</v>
+        <v>0.5229012525286834</v>
       </c>
       <c r="M24">
-        <v>0.3023474245241289</v>
+        <v>0.2640787782480913</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6450141124998652</v>
+        <v>0.4550908325097254</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01801099314594978</v>
+        <v>0.0563584377466384</v>
       </c>
       <c r="E25">
-        <v>0.04076396698524754</v>
+        <v>0.03927694303992268</v>
       </c>
       <c r="F25">
-        <v>4.93889814968739</v>
+        <v>4.010119935401576</v>
       </c>
       <c r="G25">
-        <v>0.002655929871056249</v>
+        <v>0.0008580740676703232</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.780198446950322</v>
+        <v>2.131993227229685</v>
       </c>
       <c r="J25">
-        <v>0.1138695274829793</v>
+        <v>0.08651266069231411</v>
       </c>
       <c r="K25">
-        <v>1.411498957520564</v>
+        <v>1.968602188453161</v>
       </c>
       <c r="L25">
-        <v>0.5576983372725834</v>
+        <v>0.4425103531178394</v>
       </c>
       <c r="M25">
-        <v>0.2959267465962938</v>
+        <v>0.2213120298732605</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3890025793720042</v>
+        <v>1.246953275378104</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04766903547260881</v>
+        <v>0.08311693841906198</v>
       </c>
       <c r="E2">
-        <v>0.03434699795257323</v>
+        <v>0.07619270997432004</v>
       </c>
       <c r="F2">
-        <v>3.686392422569668</v>
+        <v>0.5952550358927837</v>
       </c>
       <c r="G2">
-        <v>0.0008696263883710973</v>
+        <v>0.485246919112214</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.006477075996581705</v>
       </c>
       <c r="I2">
-        <v>2.008515716694291</v>
+        <v>0.01051447941195427</v>
       </c>
       <c r="J2">
-        <v>0.08218719886104431</v>
+        <v>0.3095487476476251</v>
       </c>
       <c r="K2">
-        <v>1.648846908841477</v>
+        <v>2.592984079869012</v>
       </c>
       <c r="L2">
-        <v>0.3862189144220309</v>
+        <v>0.1100726902103837</v>
       </c>
       <c r="M2">
-        <v>0.1911890471104485</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>4.615283359262179</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.62834421194043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3455188546139851</v>
+        <v>1.085846480078885</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04196995954769989</v>
+        <v>0.08455630489576471</v>
       </c>
       <c r="E3">
-        <v>0.03108413291596612</v>
+        <v>0.077003496791205</v>
       </c>
       <c r="F3">
-        <v>3.476218324390146</v>
+        <v>0.5470551287199115</v>
       </c>
       <c r="G3">
-        <v>0.0008777309215046528</v>
+        <v>0.4307347721142065</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.003952754798165037</v>
       </c>
       <c r="I3">
-        <v>1.928564638188789</v>
+        <v>0.01230290464983685</v>
       </c>
       <c r="J3">
-        <v>0.07928159699500448</v>
+        <v>0.2885737155051231</v>
       </c>
       <c r="K3">
-        <v>1.438376996421084</v>
+        <v>2.294822033459823</v>
       </c>
       <c r="L3">
-        <v>0.349537325786244</v>
+        <v>0.1079946097361741</v>
       </c>
       <c r="M3">
-        <v>0.1714716957527713</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>4.030601815755617</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.468528516824392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.319382752977333</v>
+        <v>0.9864575555080535</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03854479707123204</v>
+        <v>0.0854876989928588</v>
       </c>
       <c r="E4">
-        <v>0.02910809965102246</v>
+        <v>0.07750051242790956</v>
       </c>
       <c r="F4">
-        <v>3.351145160446464</v>
+        <v>0.5183148634369772</v>
       </c>
       <c r="G4">
-        <v>0.0008828523142608761</v>
+        <v>0.3979126424972605</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002677998420685446</v>
       </c>
       <c r="I4">
-        <v>1.881096264876305</v>
+        <v>0.01351966644283298</v>
       </c>
       <c r="J4">
-        <v>0.07750084751223518</v>
+        <v>0.2761096971720036</v>
       </c>
       <c r="K4">
-        <v>1.311699229099418</v>
+        <v>2.115039445193091</v>
       </c>
       <c r="L4">
-        <v>0.3276388323051123</v>
+        <v>0.1066830227912767</v>
       </c>
       <c r="M4">
-        <v>0.1596637245052968</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>3.672730732738174</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.372634102840152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3088627980115746</v>
+        <v>0.9448940032936832</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03716501640556658</v>
+        <v>0.08583187445413643</v>
       </c>
       <c r="E5">
-        <v>0.02830823176575059</v>
+        <v>0.07769970947479976</v>
       </c>
       <c r="F5">
-        <v>3.301098499995078</v>
+        <v>0.506465177713352</v>
       </c>
       <c r="G5">
-        <v>0.0008849770985932213</v>
+        <v>0.3844685442094686</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002224590450416342</v>
       </c>
       <c r="I5">
-        <v>1.862130637242373</v>
+        <v>0.01412410030738753</v>
       </c>
       <c r="J5">
-        <v>0.07677474213488367</v>
+        <v>0.2710097395805064</v>
       </c>
       <c r="K5">
-        <v>1.260648115900409</v>
+        <v>2.048590356493563</v>
       </c>
       <c r="L5">
-        <v>0.3188584741462677</v>
+        <v>0.1062030735796178</v>
       </c>
       <c r="M5">
-        <v>0.1549208228890215</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>3.532604645999044</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.333364776764142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3071235594800044</v>
+        <v>0.9368370509559725</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0369367984348159</v>
+        <v>0.08583248620262829</v>
       </c>
       <c r="E6">
-        <v>0.02817569782617824</v>
+        <v>0.07772914313004442</v>
       </c>
       <c r="F6">
-        <v>3.292841787178887</v>
+        <v>0.5040978314141427</v>
       </c>
       <c r="G6">
-        <v>0.0008853322345248255</v>
+        <v>0.3819797099142761</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002156097213575348</v>
       </c>
       <c r="I6">
-        <v>1.859003416108294</v>
+        <v>0.01433181849784226</v>
       </c>
       <c r="J6">
-        <v>0.07665411161680957</v>
+        <v>0.2700241101535852</v>
       </c>
       <c r="K6">
-        <v>1.252203649584345</v>
+        <v>2.045006479051722</v>
       </c>
       <c r="L6">
-        <v>0.3174087913854322</v>
+        <v>0.1062003264761522</v>
       </c>
       <c r="M6">
-        <v>0.1541372608314333</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>3.516037934052193</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.326010181062287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3192403617145629</v>
+        <v>0.9827559429055839</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03852612740083572</v>
+        <v>0.08533712366969226</v>
       </c>
       <c r="E7">
-        <v>0.02909729245659243</v>
+        <v>0.07749448489850508</v>
       </c>
       <c r="F7">
-        <v>3.350466580658605</v>
+        <v>0.5170349412874202</v>
       </c>
       <c r="G7">
-        <v>0.0008828808152983055</v>
+        <v>0.397009173030014</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002681376749971598</v>
       </c>
       <c r="I7">
-        <v>1.88083899460436</v>
+        <v>0.01380043791047392</v>
       </c>
       <c r="J7">
-        <v>0.07749105835951653</v>
+        <v>0.2756474994919671</v>
       </c>
       <c r="K7">
-        <v>1.311008512897388</v>
+        <v>2.134424738777284</v>
       </c>
       <c r="L7">
-        <v>0.3275198535756374</v>
+        <v>0.1068894318267617</v>
       </c>
       <c r="M7">
-        <v>0.1595994887096346</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>3.689131597275406</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.369751097132962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3738857182835602</v>
+        <v>1.18731707128606</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04568696233022962</v>
+        <v>0.08340264876954073</v>
       </c>
       <c r="E8">
-        <v>0.03321533300851698</v>
+        <v>0.07646689114669325</v>
       </c>
       <c r="F8">
-        <v>3.613050836080731</v>
+        <v>0.5769854282245745</v>
       </c>
       <c r="G8">
-        <v>0.0008723914915349187</v>
+        <v>0.4653625149185814</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.005565065074970676</v>
       </c>
       <c r="I8">
-        <v>1.980593395477072</v>
+        <v>0.01143404987821661</v>
       </c>
       <c r="J8">
-        <v>0.0811838648161487</v>
+        <v>0.3017132661027659</v>
       </c>
       <c r="K8">
-        <v>1.575703094728112</v>
+        <v>2.516663851061253</v>
       </c>
       <c r="L8">
-        <v>0.3734331057627287</v>
+        <v>0.109652936340229</v>
       </c>
       <c r="M8">
-        <v>0.1843246969601964</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>4.437797941945462</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.569672614698931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4860514915103522</v>
+        <v>1.590727926561897</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06044867614403415</v>
+        <v>0.08027852183265161</v>
       </c>
       <c r="E9">
-        <v>0.04158344849518869</v>
+        <v>0.07444490689002059</v>
       </c>
       <c r="F9">
-        <v>4.163353399075305</v>
+        <v>0.7040906650331209</v>
       </c>
       <c r="G9">
-        <v>0.0008529115850043155</v>
+        <v>0.6065582212366678</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01364255463310324</v>
       </c>
       <c r="I9">
-        <v>2.190543099453919</v>
+        <v>0.007407044953457564</v>
       </c>
       <c r="J9">
-        <v>0.08851515303005719</v>
+        <v>0.3571441092223466</v>
       </c>
       <c r="K9">
-        <v>2.118515408297839</v>
+        <v>3.257659604840214</v>
       </c>
       <c r="L9">
-        <v>0.4690905295949364</v>
+        <v>0.1143610040036585</v>
       </c>
       <c r="M9">
-        <v>0.2354836519950823</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>5.883362515908999</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.985840467467369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5723409669075465</v>
+        <v>1.889154042171725</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07193778734152545</v>
+        <v>0.07720262618325613</v>
       </c>
       <c r="E10">
-        <v>0.04802816300389168</v>
+        <v>0.07441997504561648</v>
       </c>
       <c r="F10">
-        <v>4.59512771080972</v>
+        <v>0.7894849931651038</v>
       </c>
       <c r="G10">
-        <v>0.0008391687832675688</v>
+        <v>0.7054921323555305</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02126496955951707</v>
       </c>
       <c r="I10">
-        <v>2.355769870418086</v>
+        <v>0.005340010567178588</v>
       </c>
       <c r="J10">
-        <v>0.09405575624075269</v>
+        <v>0.3958588374311773</v>
       </c>
       <c r="K10">
-        <v>2.53721253612855</v>
+        <v>3.851583180182786</v>
       </c>
       <c r="L10">
-        <v>0.5438315834645095</v>
+        <v>0.1228042242023264</v>
       </c>
       <c r="M10">
-        <v>0.2751683743588913</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>6.932642838809443</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2.277160217942367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6126465526153595</v>
+        <v>2.065710055825036</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07735698064226426</v>
+        <v>0.06983573373793428</v>
       </c>
       <c r="E11">
-        <v>0.05105504092818691</v>
+        <v>0.09536082096931686</v>
       </c>
       <c r="F11">
-        <v>4.798998270936465</v>
+        <v>0.7154462902459926</v>
       </c>
       <c r="G11">
-        <v>0.0008330167021771527</v>
+        <v>0.6720946211393795</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0406959249710539</v>
       </c>
       <c r="I11">
-        <v>2.433878660475671</v>
+        <v>0.005004174915628212</v>
       </c>
       <c r="J11">
-        <v>0.09663562617189747</v>
+        <v>0.3744788308622589</v>
       </c>
       <c r="K11">
-        <v>2.733378940783609</v>
+        <v>4.328366325262181</v>
       </c>
       <c r="L11">
-        <v>0.5790634910252379</v>
+        <v>0.1872057292674896</v>
       </c>
       <c r="M11">
-        <v>0.2937955323783044</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>7.171339205345589</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2.161822565552342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6280798129390917</v>
+        <v>2.15893744429178</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07944186228176875</v>
+        <v>0.06807817273106131</v>
       </c>
       <c r="E12">
-        <v>0.05221787430886948</v>
+        <v>0.1238123168040559</v>
       </c>
       <c r="F12">
-        <v>4.877409457334778</v>
+        <v>0.6390041463218523</v>
       </c>
       <c r="G12">
-        <v>0.0008306991869802795</v>
+        <v>0.6246360029903713</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07899082939738378</v>
       </c>
       <c r="I12">
-        <v>2.463932297630677</v>
+        <v>0.004670938578061445</v>
       </c>
       <c r="J12">
-        <v>0.09762359321111802</v>
+        <v>0.3488836448101011</v>
       </c>
       <c r="K12">
-        <v>2.808610902215236</v>
+        <v>4.576947951947773</v>
       </c>
       <c r="L12">
-        <v>0.5926066870368771</v>
+        <v>0.2604549366380127</v>
       </c>
       <c r="M12">
-        <v>0.3009428016525391</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>7.114640355016121</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2.007712163955119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6247480782702439</v>
+        <v>2.187512431878758</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07899130190425296</v>
+        <v>0.07022343759260252</v>
       </c>
       <c r="E13">
-        <v>0.05196664710222265</v>
+        <v>0.1592721399530603</v>
       </c>
       <c r="F13">
-        <v>4.86046603473639</v>
+        <v>0.5547674481724982</v>
       </c>
       <c r="G13">
-        <v>0.0008311978024493604</v>
+        <v>0.5625675001093526</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1333456065737408</v>
       </c>
       <c r="I13">
-        <v>2.457437672941225</v>
+        <v>0.004660447767439457</v>
       </c>
       <c r="J13">
-        <v>0.09741028331422008</v>
+        <v>0.3179625726896944</v>
       </c>
       <c r="K13">
-        <v>2.792363981112516</v>
+        <v>4.694101489060188</v>
       </c>
       <c r="L13">
-        <v>0.5896805285369595</v>
+        <v>0.3441739783552293</v>
       </c>
       <c r="M13">
-        <v>0.2993991596975434</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>6.856860509623573</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.811378110456729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6139127239992774</v>
+        <v>2.177137687335119</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07752781756228444</v>
+        <v>0.0739189667450475</v>
       </c>
       <c r="E14">
-        <v>0.05115035659452616</v>
+        <v>0.188453669705499</v>
       </c>
       <c r="F14">
-        <v>4.805424114265719</v>
+        <v>0.4930189814392136</v>
       </c>
       <c r="G14">
-        <v>0.0008328258087061647</v>
+        <v>0.5129251763396212</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1813430173115478</v>
       </c>
       <c r="I14">
-        <v>2.436341343632236</v>
+        <v>0.004880430967368454</v>
       </c>
       <c r="J14">
-        <v>0.09671667042280596</v>
+        <v>0.2940679997668809</v>
       </c>
       <c r="K14">
-        <v>2.739548529967038</v>
+        <v>4.723397297002293</v>
       </c>
       <c r="L14">
-        <v>0.5801735062112101</v>
+        <v>0.4097856671145763</v>
       </c>
       <c r="M14">
-        <v>0.2943815999643178</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>6.591758343229259</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.65605614413974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6072985519895155</v>
+        <v>2.159062503527423</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07663581680207443</v>
+        <v>0.07517100363010343</v>
       </c>
       <c r="E15">
-        <v>0.05065261346349104</v>
+        <v>0.1957122053486415</v>
       </c>
       <c r="F15">
-        <v>4.771871261377271</v>
+        <v>0.4757980763550549</v>
       </c>
       <c r="G15">
-        <v>0.0008338245224152457</v>
+        <v>0.4975147808875278</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1932341589988198</v>
       </c>
       <c r="I15">
-        <v>2.423482796725139</v>
+        <v>0.005124925117677037</v>
       </c>
       <c r="J15">
-        <v>0.09629332778439803</v>
+        <v>0.2870226242255853</v>
       </c>
       <c r="K15">
-        <v>2.707325070616974</v>
+        <v>4.710842252279775</v>
       </c>
       <c r="L15">
-        <v>0.5743772156421016</v>
+        <v>0.4254263042662672</v>
       </c>
       <c r="M15">
-        <v>0.2913207320298596</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>6.492872931216908</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.60860013417107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5697296608270506</v>
+        <v>2.020874242322691</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07158792464610997</v>
+        <v>0.07585228102455943</v>
       </c>
       <c r="E16">
-        <v>0.04783250645321679</v>
+        <v>0.1875366687042579</v>
       </c>
       <c r="F16">
-        <v>4.581965733517649</v>
+        <v>0.4567134874552181</v>
       </c>
       <c r="G16">
-        <v>0.0008395726595773478</v>
+        <v>0.4678783381175435</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1772928924173698</v>
       </c>
       <c r="I16">
-        <v>2.350728871543438</v>
+        <v>0.006035612301531934</v>
       </c>
       <c r="J16">
-        <v>0.0938885560994791</v>
+        <v>0.2766464047414701</v>
       </c>
       <c r="K16">
-        <v>2.524517925161234</v>
+        <v>4.436235329897841</v>
       </c>
       <c r="L16">
-        <v>0.5415559136953902</v>
+        <v>0.4026282109950188</v>
       </c>
       <c r="M16">
-        <v>0.2739635141395738</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>6.110285034947282</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.523823489485977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5469647979035699</v>
+        <v>1.920669582490405</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06854395682445613</v>
+        <v>0.07411811748252006</v>
       </c>
       <c r="E17">
-        <v>0.04612880325275803</v>
+        <v>0.1650298157493992</v>
       </c>
       <c r="F17">
-        <v>4.467467485204082</v>
+        <v>0.4744493526164533</v>
       </c>
       <c r="G17">
-        <v>0.0008431229865495227</v>
+        <v>0.4713552491189006</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1378231036679551</v>
       </c>
       <c r="I17">
-        <v>2.306886495139693</v>
+        <v>0.006671868132364978</v>
       </c>
       <c r="J17">
-        <v>0.09243019062015101</v>
+        <v>0.2813449638558012</v>
       </c>
       <c r="K17">
-        <v>2.413918139030443</v>
+        <v>4.212249419787469</v>
       </c>
       <c r="L17">
-        <v>0.5217531731035052</v>
+        <v>0.3489431461212007</v>
       </c>
       <c r="M17">
-        <v>0.2634699660143269</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>5.958405084503255</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.540888828869839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5339688171926298</v>
+        <v>1.845117361185117</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06681095171544627</v>
+        <v>0.07184782304920212</v>
       </c>
       <c r="E18">
-        <v>0.04515763649864901</v>
+        <v>0.132356161653945</v>
       </c>
       <c r="F18">
-        <v>4.402303645034522</v>
+        <v>0.5280773285437448</v>
       </c>
       <c r="G18">
-        <v>0.000845174557809135</v>
+        <v>0.5046392082726072</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08457652214537603</v>
       </c>
       <c r="I18">
-        <v>2.281943424720737</v>
+        <v>0.006809257013745018</v>
       </c>
       <c r="J18">
-        <v>0.09159680376476231</v>
+        <v>0.2999258435148846</v>
       </c>
       <c r="K18">
-        <v>2.35083196042504</v>
+        <v>3.988083426754855</v>
       </c>
       <c r="L18">
-        <v>0.5104774821116109</v>
+        <v>0.271530978440083</v>
       </c>
       <c r="M18">
-        <v>0.2574876926830285</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>5.969801928481331</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.650267216769038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5295848430238266</v>
+        <v>1.789312351859735</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.066227100756862</v>
+        <v>0.07179616851032877</v>
       </c>
       <c r="E19">
-        <v>0.04483023699128097</v>
+        <v>0.1016602177003314</v>
       </c>
       <c r="F19">
-        <v>4.380355272041129</v>
+        <v>0.6080388490784188</v>
       </c>
       <c r="G19">
-        <v>0.0008458708816092564</v>
+        <v>0.5596980603264257</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04035478940213011</v>
       </c>
       <c r="I19">
-        <v>2.273543682147888</v>
+        <v>0.007080632535984677</v>
       </c>
       <c r="J19">
-        <v>0.09131549491609192</v>
+        <v>0.3282067235222712</v>
       </c>
       <c r="K19">
-        <v>2.329559053958945</v>
+        <v>3.826028395785073</v>
       </c>
       <c r="L19">
-        <v>0.5066786603016169</v>
+        <v>0.1960027410440333</v>
       </c>
       <c r="M19">
-        <v>0.2554710438051089</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>6.144718288093571</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.826176160898285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.549377905937888</v>
+        <v>1.801156003591018</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06886611523340491</v>
+        <v>0.07751002834164034</v>
       </c>
       <c r="E20">
-        <v>0.04630923885399696</v>
+        <v>0.07452287228133692</v>
       </c>
       <c r="F20">
-        <v>4.479583394854131</v>
+        <v>0.7627771727546673</v>
       </c>
       <c r="G20">
-        <v>0.0008427440782224167</v>
+        <v>0.6766401177747809</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01917830505004625</v>
       </c>
       <c r="I20">
-        <v>2.311524884807696</v>
+        <v>0.006658382122520123</v>
       </c>
       <c r="J20">
-        <v>0.092584857566548</v>
+        <v>0.3841458314132922</v>
       </c>
       <c r="K20">
-        <v>2.425636156550752</v>
+        <v>3.761476368070191</v>
       </c>
       <c r="L20">
-        <v>0.5238492082279578</v>
+        <v>0.1215655973023573</v>
       </c>
       <c r="M20">
-        <v>0.2645814262266448</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>6.713664168469649</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2.191340480220163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.617090542565478</v>
+        <v>2.024009115326521</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07795674616251347</v>
+        <v>0.07686961153310001</v>
       </c>
       <c r="E21">
-        <v>0.05138964445085925</v>
+        <v>0.07220522070778124</v>
       </c>
       <c r="F21">
-        <v>4.821557249719064</v>
+        <v>0.851705076142764</v>
       </c>
       <c r="G21">
-        <v>0.0008323473126271074</v>
+        <v>0.7689708814278617</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02608597908366639</v>
       </c>
       <c r="I21">
-        <v>2.442524499605256</v>
+        <v>0.005172841660718852</v>
       </c>
       <c r="J21">
-        <v>0.09692008064904201</v>
+        <v>0.4221287163006622</v>
       </c>
       <c r="K21">
-        <v>2.755034880128079</v>
+        <v>4.182521977673105</v>
       </c>
       <c r="L21">
-        <v>0.5829602671889234</v>
+        <v>0.1198676004411823</v>
       </c>
       <c r="M21">
-        <v>0.2958527458021791</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>7.557391215195025</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.466993600733019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.662348371146237</v>
+        <v>2.176273846425715</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0840917233027767</v>
+        <v>0.0761966694418561</v>
       </c>
       <c r="E22">
-        <v>0.05480851958678912</v>
+        <v>0.07143797566213195</v>
       </c>
       <c r="F22">
-        <v>5.052184361388157</v>
+        <v>0.9058959244392355</v>
       </c>
       <c r="G22">
-        <v>0.0008256220245527173</v>
+        <v>0.8267682368317679</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03090636966942295</v>
       </c>
       <c r="I22">
-        <v>2.530940394535421</v>
+        <v>0.004048117459078071</v>
       </c>
       <c r="J22">
-        <v>0.09981907269304457</v>
+        <v>0.4457822194720364</v>
       </c>
       <c r="K22">
-        <v>2.975912667610828</v>
+        <v>4.444071903055601</v>
       </c>
       <c r="L22">
-        <v>0.6227815768907448</v>
+        <v>0.1210248886320855</v>
       </c>
       <c r="M22">
-        <v>0.3168417748252921</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>8.071185743544447</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.639289432583723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.638094700897625</v>
+        <v>2.098752303221318</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08079780517535795</v>
+        <v>0.07671633199467465</v>
       </c>
       <c r="E23">
-        <v>0.05297370847413063</v>
+        <v>0.07183992706415765</v>
       </c>
       <c r="F23">
-        <v>4.928392436918841</v>
+        <v>0.8780701896248502</v>
       </c>
       <c r="G23">
-        <v>0.0008292058523243908</v>
+        <v>0.7966020826154505</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02824717872493243</v>
       </c>
       <c r="I23">
-        <v>2.483476306490317</v>
+        <v>0.00431311294901171</v>
       </c>
       <c r="J23">
-        <v>0.09826490687830436</v>
+        <v>0.4335263644046563</v>
       </c>
       <c r="K23">
-        <v>2.857467405229499</v>
+        <v>4.278611380530123</v>
       </c>
       <c r="L23">
-        <v>0.6014105514432231</v>
+        <v>0.120141343645912</v>
       </c>
       <c r="M23">
-        <v>0.305585120777387</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>7.774526997215332</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.549546986789778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5482866551471091</v>
+        <v>1.799218655369373</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06872041479879698</v>
+        <v>0.07855369894056174</v>
       </c>
       <c r="E24">
-        <v>0.04622763823659071</v>
+        <v>0.07336617340106777</v>
       </c>
       <c r="F24">
-        <v>4.47410373808296</v>
+        <v>0.7737241892928921</v>
       </c>
       <c r="G24">
-        <v>0.0008429153500299097</v>
+        <v>0.6836054785406134</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01920390961354224</v>
       </c>
       <c r="I24">
-        <v>2.309427055072987</v>
+        <v>0.006167942333302534</v>
       </c>
       <c r="J24">
-        <v>0.09251491710329773</v>
+        <v>0.3877870558637397</v>
       </c>
       <c r="K24">
-        <v>2.420336895727672</v>
+        <v>3.701233885803475</v>
       </c>
       <c r="L24">
-        <v>0.5229012525286834</v>
+        <v>0.1170951809776533</v>
       </c>
       <c r="M24">
-        <v>0.2640787782480913</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>6.690201392371648</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>2.213722643946539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4550908325097254</v>
+        <v>1.476173601667483</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0563584377466384</v>
+        <v>0.08081210402260908</v>
       </c>
       <c r="E25">
-        <v>0.03927694303992268</v>
+        <v>0.07499651686049713</v>
       </c>
       <c r="F25">
-        <v>4.010119935401576</v>
+        <v>0.6668172309983831</v>
       </c>
       <c r="G25">
-        <v>0.0008580740676703232</v>
+        <v>0.5663545564556784</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01119491352304125</v>
       </c>
       <c r="I25">
-        <v>2.131993227229685</v>
+        <v>0.008835204678841357</v>
       </c>
       <c r="J25">
-        <v>0.08651266069231411</v>
+        <v>0.3410244318276625</v>
       </c>
       <c r="K25">
-        <v>1.968602188453161</v>
+        <v>3.091752625155976</v>
       </c>
       <c r="L25">
-        <v>0.4425103531178394</v>
+        <v>0.1135337636555747</v>
       </c>
       <c r="M25">
-        <v>0.2213120298732605</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>5.52456945709929</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.866659567852906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.246953275378104</v>
+        <v>1.514632105858794</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08311693841906198</v>
+        <v>0.09221882388300884</v>
       </c>
       <c r="E2">
-        <v>0.07619270997432004</v>
+        <v>0.0773617207143612</v>
       </c>
       <c r="F2">
-        <v>0.5952550358927837</v>
+        <v>0.6900777861788114</v>
       </c>
       <c r="G2">
-        <v>0.485246919112214</v>
+        <v>0.5325761441826415</v>
       </c>
       <c r="H2">
-        <v>0.006477075996581705</v>
+        <v>0.005039503676740109</v>
       </c>
       <c r="I2">
-        <v>0.01051447941195427</v>
+        <v>0.006592547054621534</v>
       </c>
       <c r="J2">
-        <v>0.3095487476476251</v>
+        <v>0.3943522258798566</v>
       </c>
       <c r="K2">
-        <v>2.592984079869012</v>
+        <v>1.234768597505465</v>
       </c>
       <c r="L2">
-        <v>0.1100726902103837</v>
+        <v>0.4181570561159873</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5088444399294971</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09757383139724141</v>
       </c>
       <c r="O2">
-        <v>4.615283359262179</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.62834421194043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>3.285861342412048</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.830347126449567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.085846480078885</v>
+        <v>1.324268728425295</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08455630489576471</v>
+        <v>0.09256580122725921</v>
       </c>
       <c r="E3">
-        <v>0.077003496791205</v>
+        <v>0.07804181509709207</v>
       </c>
       <c r="F3">
-        <v>0.5470551287199115</v>
+        <v>0.6329788224880772</v>
       </c>
       <c r="G3">
-        <v>0.4307347721142065</v>
+        <v>0.4711113029901242</v>
       </c>
       <c r="H3">
-        <v>0.003952754798165037</v>
+        <v>0.002978010501512807</v>
       </c>
       <c r="I3">
-        <v>0.01230290464983685</v>
+        <v>0.007635252378069612</v>
       </c>
       <c r="J3">
-        <v>0.2885737155051231</v>
+        <v>0.3693160311120778</v>
       </c>
       <c r="K3">
-        <v>2.294822033459823</v>
+        <v>1.094905496670847</v>
       </c>
       <c r="L3">
-        <v>0.1079946097361741</v>
+        <v>0.3557466129968532</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.468477959859193</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09690159145553778</v>
       </c>
       <c r="O3">
-        <v>4.030601815755617</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.468528516824392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.852695547606899</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.652557406904293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9864575555080535</v>
+        <v>1.206710962483442</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0854876989928588</v>
+        <v>0.09281865854260829</v>
       </c>
       <c r="E4">
-        <v>0.07750051242790956</v>
+        <v>0.07845208347602439</v>
       </c>
       <c r="F4">
-        <v>0.5183148634369772</v>
+        <v>0.5986243127721949</v>
       </c>
       <c r="G4">
-        <v>0.3979126424972605</v>
+        <v>0.4340379348781198</v>
       </c>
       <c r="H4">
-        <v>0.002677998420685446</v>
+        <v>0.001951888727447448</v>
       </c>
       <c r="I4">
-        <v>0.01351966644283298</v>
+        <v>0.008363070405895456</v>
       </c>
       <c r="J4">
-        <v>0.2761096971720036</v>
+        <v>0.3541358889237927</v>
       </c>
       <c r="K4">
-        <v>2.115039445193091</v>
+        <v>1.011349491700045</v>
       </c>
       <c r="L4">
-        <v>0.1066830227912767</v>
+        <v>0.3192936075941049</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.444074164504336</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09645111815171248</v>
       </c>
       <c r="O4">
-        <v>3.672730732738174</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.372634102840152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.587822860240919</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.545252361354756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9448940032936832</v>
+        <v>1.157855223069674</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08583187445413643</v>
+        <v>0.09288720975026976</v>
       </c>
       <c r="E5">
-        <v>0.07769970947479976</v>
+        <v>0.07858909679868431</v>
       </c>
       <c r="F5">
-        <v>0.506465177713352</v>
+        <v>0.5845194480206928</v>
       </c>
       <c r="G5">
-        <v>0.3844685442094686</v>
+        <v>0.4189124080642586</v>
       </c>
       <c r="H5">
-        <v>0.002224590450416342</v>
+        <v>0.00159053413918786</v>
       </c>
       <c r="I5">
-        <v>0.01412410030738753</v>
+        <v>0.008774773942183955</v>
       </c>
       <c r="J5">
-        <v>0.2710097395805064</v>
+        <v>0.3479004032665358</v>
       </c>
       <c r="K5">
-        <v>2.048590356493563</v>
+        <v>0.9807333970437924</v>
       </c>
       <c r="L5">
-        <v>0.1062030735796178</v>
+        <v>0.3057884037434704</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4354747454240453</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09625541866573606</v>
       </c>
       <c r="O5">
-        <v>3.532604645999044</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.333364776764142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>2.483541281999422</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.501395734492206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9368370509559725</v>
+        <v>1.148782625432489</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08583248620262829</v>
+        <v>0.09284547920706743</v>
       </c>
       <c r="E6">
-        <v>0.07772914313004442</v>
+        <v>0.07857743069547862</v>
       </c>
       <c r="F6">
-        <v>0.5040978314141427</v>
+        <v>0.5818591841221803</v>
       </c>
       <c r="G6">
-        <v>0.3819797099142761</v>
+        <v>0.4162025864670937</v>
       </c>
       <c r="H6">
-        <v>0.002156097213575348</v>
+        <v>0.001535191899657562</v>
       </c>
       <c r="I6">
-        <v>0.01433181849784226</v>
+        <v>0.008968309396373719</v>
       </c>
       <c r="J6">
-        <v>0.2700241101535852</v>
+        <v>0.3467526092704247</v>
       </c>
       <c r="K6">
-        <v>2.045006479051722</v>
+        <v>0.9792058243475736</v>
       </c>
       <c r="L6">
-        <v>0.1062003264761522</v>
+        <v>0.3046632761939136</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4355942272535103</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09621919407227608</v>
       </c>
       <c r="O6">
-        <v>3.516037934052193</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.326010181062287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>2.470399459046135</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.493458732283301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9827559429055839</v>
+        <v>1.203751664911152</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08533712366969226</v>
+        <v>0.09274256854828522</v>
       </c>
       <c r="E7">
-        <v>0.07749448489850508</v>
+        <v>0.0783499428794987</v>
       </c>
       <c r="F7">
-        <v>0.5170349412874202</v>
+        <v>0.596335378440159</v>
       </c>
       <c r="G7">
-        <v>0.397009173030014</v>
+        <v>0.4369876538654438</v>
       </c>
       <c r="H7">
-        <v>0.002681376749971598</v>
+        <v>0.001946764548727664</v>
       </c>
       <c r="I7">
-        <v>0.01380043791047392</v>
+        <v>0.008689075718478989</v>
       </c>
       <c r="J7">
-        <v>0.2756474994919671</v>
+        <v>0.3477145764719722</v>
       </c>
       <c r="K7">
-        <v>2.134424738777284</v>
+        <v>1.020968153227187</v>
       </c>
       <c r="L7">
-        <v>0.1068894318267617</v>
+        <v>0.3222640440141262</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4483004574144687</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09641438763009269</v>
       </c>
       <c r="O7">
-        <v>3.689131597275406</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.369751097132962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.596485669913022</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.538553131939494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.18731707128606</v>
+        <v>1.446673901604811</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08340264876954073</v>
+        <v>0.09237403646719144</v>
       </c>
       <c r="E8">
-        <v>0.07646689114669325</v>
+        <v>0.07744692035695855</v>
       </c>
       <c r="F8">
-        <v>0.5769854282245745</v>
+        <v>0.6650365190144356</v>
       </c>
       <c r="G8">
-        <v>0.4653625149185814</v>
+        <v>0.5229964190291128</v>
       </c>
       <c r="H8">
-        <v>0.005565065074970676</v>
+        <v>0.004264120230053736</v>
       </c>
       <c r="I8">
-        <v>0.01143404987821661</v>
+        <v>0.007323557161726058</v>
       </c>
       <c r="J8">
-        <v>0.3017132661027659</v>
+        <v>0.3653655595773273</v>
       </c>
       <c r="K8">
-        <v>2.516663851061253</v>
+        <v>1.200376230713829</v>
       </c>
       <c r="L8">
-        <v>0.109652936340229</v>
+        <v>0.4009711143878008</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5008233782178166</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09726561730753325</v>
       </c>
       <c r="O8">
-        <v>4.437797941945462</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.569672614698931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>3.147046121175308</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.751975499899146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.590727926561897</v>
+        <v>1.921547236018512</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08027852183265161</v>
+        <v>0.09199676843886451</v>
       </c>
       <c r="E9">
-        <v>0.07444490689002059</v>
+        <v>0.07582076343054378</v>
       </c>
       <c r="F9">
-        <v>0.7040906650331209</v>
+        <v>0.8119847691808388</v>
       </c>
       <c r="G9">
-        <v>0.6065582212366678</v>
+        <v>0.6851293614084852</v>
       </c>
       <c r="H9">
-        <v>0.01364255463310324</v>
+        <v>0.0109271875876891</v>
       </c>
       <c r="I9">
-        <v>0.007407044953457564</v>
+        <v>0.004897310621484685</v>
       </c>
       <c r="J9">
-        <v>0.3571441092223466</v>
+        <v>0.4237017343894678</v>
       </c>
       <c r="K9">
-        <v>3.257659604840214</v>
+        <v>1.552280861554209</v>
       </c>
       <c r="L9">
-        <v>0.1143610040036585</v>
+        <v>0.5639939630709563</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.599285834583597</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.09871742353578306</v>
       </c>
       <c r="O9">
-        <v>5.883362515908999</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.985840467467369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.22015550257133</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2.205898340413512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.889154042171725</v>
+        <v>2.274950117876358</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07720262618325613</v>
+        <v>0.09079074931246467</v>
       </c>
       <c r="E10">
-        <v>0.07441997504561648</v>
+        <v>0.07447666922497986</v>
       </c>
       <c r="F10">
-        <v>0.7894849931651038</v>
+        <v>0.9033796156818852</v>
       </c>
       <c r="G10">
-        <v>0.7054921323555305</v>
+        <v>0.822001364867404</v>
       </c>
       <c r="H10">
-        <v>0.02126496955951707</v>
+        <v>0.01719171313211643</v>
       </c>
       <c r="I10">
-        <v>0.005340010567178588</v>
+        <v>0.003813246910951307</v>
       </c>
       <c r="J10">
-        <v>0.3958588374311773</v>
+        <v>0.4289906329215967</v>
       </c>
       <c r="K10">
-        <v>3.851583180182786</v>
+        <v>1.83957747116979</v>
       </c>
       <c r="L10">
-        <v>0.1228042242023264</v>
+        <v>0.6990325022299544</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.6803437689818139</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1016894848498637</v>
       </c>
       <c r="O10">
-        <v>6.932642838809443</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.277160217942367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>4.98240966064364</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2.49665352324763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.065710055825036</v>
+        <v>2.494143968888977</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06983573373793428</v>
+        <v>0.0795753072828429</v>
       </c>
       <c r="E11">
-        <v>0.09536082096931686</v>
+        <v>0.08047525414264101</v>
       </c>
       <c r="F11">
-        <v>0.7154462902459926</v>
+        <v>0.8158671376232292</v>
       </c>
       <c r="G11">
-        <v>0.6720946211393795</v>
+        <v>0.8404018502006352</v>
       </c>
       <c r="H11">
-        <v>0.0406959249710539</v>
+        <v>0.03603237558332495</v>
       </c>
       <c r="I11">
-        <v>0.005004174915628212</v>
+        <v>0.003971660051257153</v>
       </c>
       <c r="J11">
-        <v>0.3744788308622589</v>
+        <v>0.3421847485357006</v>
       </c>
       <c r="K11">
-        <v>4.328366325262181</v>
+        <v>2.070512875057275</v>
       </c>
       <c r="L11">
-        <v>0.1872057292674896</v>
+        <v>0.7980664156238788</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.7551219667500675</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1366539912025289</v>
       </c>
       <c r="O11">
-        <v>7.171339205345589</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.161822565552342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>5.067149182639923</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>2.334273986637015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.15893744429178</v>
+        <v>2.610445604574579</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06807817273106131</v>
+        <v>0.07327168386005756</v>
       </c>
       <c r="E12">
-        <v>0.1238123168040559</v>
+        <v>0.09561263810453369</v>
       </c>
       <c r="F12">
-        <v>0.6390041463218523</v>
+        <v>0.731254689459746</v>
       </c>
       <c r="G12">
-        <v>0.6246360029903713</v>
+        <v>0.8126525043163468</v>
       </c>
       <c r="H12">
-        <v>0.07899082939738378</v>
+        <v>0.07414290292867776</v>
       </c>
       <c r="I12">
-        <v>0.004670938578061445</v>
+        <v>0.003779107462909437</v>
       </c>
       <c r="J12">
-        <v>0.3488836448101011</v>
+        <v>0.2925770597178285</v>
       </c>
       <c r="K12">
-        <v>4.576947951947773</v>
+        <v>2.188933885992213</v>
       </c>
       <c r="L12">
-        <v>0.2604549366380127</v>
+        <v>0.8471867220794564</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7950718235107104</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1847812214537115</v>
       </c>
       <c r="O12">
-        <v>7.114640355016121</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.007712163955119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>4.959604855509099</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>2.156941140081955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.187512431878758</v>
+        <v>2.648272018730779</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07022343759260252</v>
+        <v>0.07036066417449094</v>
       </c>
       <c r="E13">
-        <v>0.1592721399530603</v>
+        <v>0.1185053149067805</v>
       </c>
       <c r="F13">
-        <v>0.5547674481724982</v>
+        <v>0.6447154422096588</v>
       </c>
       <c r="G13">
-        <v>0.5625675001093526</v>
+        <v>0.7379841655244661</v>
       </c>
       <c r="H13">
-        <v>0.1333456065737408</v>
+        <v>0.1286361077248728</v>
       </c>
       <c r="I13">
-        <v>0.004660447767439457</v>
+        <v>0.003752052358585445</v>
       </c>
       <c r="J13">
-        <v>0.3179625726896944</v>
+        <v>0.2735122725374879</v>
       </c>
       <c r="K13">
-        <v>4.694101489060188</v>
+        <v>2.240767846463427</v>
       </c>
       <c r="L13">
-        <v>0.3441739783552293</v>
+        <v>0.86475689846921</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.8161680503019539</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.245116425214583</v>
       </c>
       <c r="O13">
-        <v>6.856860509623573</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.811378110456729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>4.720430025982921</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.963288579312689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.177137687335119</v>
+        <v>2.638289408711444</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0739189667450475</v>
+        <v>0.07045656774820941</v>
       </c>
       <c r="E14">
-        <v>0.188453669705499</v>
+        <v>0.1392477644393715</v>
       </c>
       <c r="F14">
-        <v>0.4930189814392136</v>
+        <v>0.5832786290865286</v>
       </c>
       <c r="G14">
-        <v>0.5129251763396212</v>
+        <v>0.6667237403251249</v>
       </c>
       <c r="H14">
-        <v>0.1813430173115478</v>
+        <v>0.1768587577299883</v>
       </c>
       <c r="I14">
-        <v>0.004880430967368454</v>
+        <v>0.003907504872683987</v>
       </c>
       <c r="J14">
-        <v>0.2940679997668809</v>
+        <v>0.2716723540691675</v>
       </c>
       <c r="K14">
-        <v>4.723397297002293</v>
+        <v>2.250160700221471</v>
       </c>
       <c r="L14">
-        <v>0.4097856671145763</v>
+        <v>0.8638386096691875</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.8237713336287982</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2949526008692374</v>
       </c>
       <c r="O14">
-        <v>6.591758343229259</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.65605614413974</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>4.497579455897124</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.819587105469083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.159062503527423</v>
+        <v>2.617558342050188</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07517100363010343</v>
+        <v>0.07086670351259805</v>
       </c>
       <c r="E15">
-        <v>0.1957122053486415</v>
+        <v>0.1447331377814969</v>
       </c>
       <c r="F15">
-        <v>0.4757980763550549</v>
+        <v>0.5669860712003043</v>
       </c>
       <c r="G15">
-        <v>0.4975147808875278</v>
+        <v>0.6407725667399262</v>
       </c>
       <c r="H15">
-        <v>0.1932341589988198</v>
+        <v>0.1888737069403135</v>
       </c>
       <c r="I15">
-        <v>0.005124925117677037</v>
+        <v>0.004126557167734468</v>
       </c>
       <c r="J15">
-        <v>0.2870226242255853</v>
+        <v>0.2759933650807511</v>
       </c>
       <c r="K15">
-        <v>4.710842252279775</v>
+        <v>2.242480576158954</v>
       </c>
       <c r="L15">
-        <v>0.4254263042662672</v>
+        <v>0.8583820447141051</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.8232817377864734</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.3072340107863454</v>
       </c>
       <c r="O15">
-        <v>6.492872931216908</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.60860013417107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>4.420299402282765</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.779133144520102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.020874242322691</v>
+        <v>2.451150022508671</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07585228102455943</v>
+        <v>0.07211985179266733</v>
       </c>
       <c r="E16">
-        <v>0.1875366687042579</v>
+        <v>0.1405193932508766</v>
       </c>
       <c r="F16">
-        <v>0.4567134874552181</v>
+        <v>0.5545954839215739</v>
       </c>
       <c r="G16">
-        <v>0.4678783381175435</v>
+        <v>0.5667412757473613</v>
       </c>
       <c r="H16">
-        <v>0.1772928924173698</v>
+        <v>0.173652481666565</v>
       </c>
       <c r="I16">
-        <v>0.006035612301531934</v>
+        <v>0.004716352172809302</v>
       </c>
       <c r="J16">
-        <v>0.2766464047414701</v>
+        <v>0.3178754865406859</v>
       </c>
       <c r="K16">
-        <v>4.436235329897841</v>
+        <v>2.10572526018764</v>
       </c>
       <c r="L16">
-        <v>0.4026282109950188</v>
+        <v>0.7937510454717653</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.7846129717805752</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2920347196705109</v>
       </c>
       <c r="O16">
-        <v>6.110285034947282</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.523823489485977</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>4.165906432202235</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.727702911505077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.920669582490405</v>
+        <v>2.329664990582216</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07411811748252006</v>
+        <v>0.0725144572182197</v>
       </c>
       <c r="E17">
-        <v>0.1650298157493992</v>
+        <v>0.1253112345814245</v>
       </c>
       <c r="F17">
-        <v>0.4744493526164533</v>
+        <v>0.5763507535057286</v>
       </c>
       <c r="G17">
-        <v>0.4713552491189006</v>
+        <v>0.5521491358006614</v>
       </c>
       <c r="H17">
-        <v>0.1378231036679551</v>
+        <v>0.1345778598508645</v>
       </c>
       <c r="I17">
-        <v>0.006671868132364978</v>
+        <v>0.005128879177049406</v>
       </c>
       <c r="J17">
-        <v>0.2813449638558012</v>
+        <v>0.3462189809159923</v>
       </c>
       <c r="K17">
-        <v>4.212249419787469</v>
+        <v>1.997947844302345</v>
       </c>
       <c r="L17">
-        <v>0.3489431461212007</v>
+        <v>0.7458545883609844</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.7514135832183655</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2525388422187049</v>
       </c>
       <c r="O17">
-        <v>5.958405084503255</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.540888828869839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>4.087193602320767</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.759672486697667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.845117361185117</v>
+        <v>2.23535769110407</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07184782304920212</v>
+        <v>0.07382154945481689</v>
       </c>
       <c r="E18">
-        <v>0.132356161653945</v>
+        <v>0.1035490209925634</v>
       </c>
       <c r="F18">
-        <v>0.5280773285437448</v>
+        <v>0.6342761751740937</v>
       </c>
       <c r="G18">
-        <v>0.5046392082726072</v>
+        <v>0.5788321665186942</v>
       </c>
       <c r="H18">
-        <v>0.08457652214537603</v>
+        <v>0.0815193399923686</v>
       </c>
       <c r="I18">
-        <v>0.006809257013745018</v>
+        <v>0.005061099367051014</v>
       </c>
       <c r="J18">
-        <v>0.2999258435148846</v>
+        <v>0.3756779081341932</v>
       </c>
       <c r="K18">
-        <v>3.988083426754855</v>
+        <v>1.892622392096385</v>
       </c>
       <c r="L18">
-        <v>0.271530978440083</v>
+        <v>0.7030339246653767</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.7152335043629847</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1963017287733848</v>
       </c>
       <c r="O18">
-        <v>5.969801928481331</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.650267216769038</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>4.142959045150064</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.878279449224465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.789312351859735</v>
+        <v>2.165251256437671</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07179616851032877</v>
+        <v>0.07805409532011254</v>
       </c>
       <c r="E19">
-        <v>0.1016602177003314</v>
+        <v>0.08512562550911973</v>
       </c>
       <c r="F19">
-        <v>0.6080388490784188</v>
+        <v>0.7193335270085015</v>
       </c>
       <c r="G19">
-        <v>0.5596980603264257</v>
+        <v>0.6339406548438831</v>
       </c>
       <c r="H19">
-        <v>0.04035478940213011</v>
+        <v>0.03726010438091976</v>
       </c>
       <c r="I19">
-        <v>0.007080632535984677</v>
+        <v>0.005290150207561517</v>
       </c>
       <c r="J19">
-        <v>0.3282067235222712</v>
+        <v>0.4079827947854113</v>
       </c>
       <c r="K19">
-        <v>3.826028395785073</v>
+        <v>1.818926901938966</v>
       </c>
       <c r="L19">
-        <v>0.1960027410440333</v>
+        <v>0.6750639730825441</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.6880216083774116</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.144371264910049</v>
       </c>
       <c r="O19">
-        <v>6.144718288093571</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.826176160898285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>4.325229659417317</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>2.061881675668474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.801156003591018</v>
+        <v>2.173364892973382</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07751002834164034</v>
+        <v>0.09034896069933041</v>
       </c>
       <c r="E20">
-        <v>0.07452287228133692</v>
+        <v>0.0746304126775541</v>
       </c>
       <c r="F20">
-        <v>0.7627771727546673</v>
+        <v>0.8802298335657781</v>
       </c>
       <c r="G20">
-        <v>0.6766401177747809</v>
+        <v>0.7696115331163753</v>
       </c>
       <c r="H20">
-        <v>0.01917830505004625</v>
+        <v>0.01548225895459643</v>
       </c>
       <c r="I20">
-        <v>0.006658382122520123</v>
+        <v>0.005067234178742552</v>
       </c>
       <c r="J20">
-        <v>0.3841458314132922</v>
+        <v>0.4473741474748891</v>
       </c>
       <c r="K20">
-        <v>3.761476368070191</v>
+        <v>1.795115890579254</v>
       </c>
       <c r="L20">
-        <v>0.1215655973023573</v>
+        <v>0.6742921200438303</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.6713355004528552</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.101156272144781</v>
       </c>
       <c r="O20">
-        <v>6.713664168469649</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.191340480220163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.822058330065772</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>2.428267783114933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.024009115326521</v>
+        <v>2.441025331441267</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07686961153310001</v>
+        <v>0.09347350940178245</v>
       </c>
       <c r="E21">
-        <v>0.07220522070778124</v>
+        <v>0.07359728228245133</v>
       </c>
       <c r="F21">
-        <v>0.851705076142764</v>
+        <v>0.9504721771728555</v>
       </c>
       <c r="G21">
-        <v>0.7689708814278617</v>
+        <v>0.9685037579300086</v>
       </c>
       <c r="H21">
-        <v>0.02608597908366639</v>
+        <v>0.02095948345912868</v>
       </c>
       <c r="I21">
-        <v>0.005172841660718852</v>
+        <v>0.004211454723634489</v>
       </c>
       <c r="J21">
-        <v>0.4221287163006622</v>
+        <v>0.3556509022603649</v>
       </c>
       <c r="K21">
-        <v>4.182521977673105</v>
+        <v>2.007803208994986</v>
       </c>
       <c r="L21">
-        <v>0.1198676004411823</v>
+        <v>0.7769644836007643</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.7294674604181353</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.09952810050230099</v>
       </c>
       <c r="O21">
-        <v>7.557391215195025</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.466993600733019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>5.422229496545413</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>2.619847128602856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.176273846425715</v>
+        <v>2.622974431545572</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0761966694418561</v>
+        <v>0.09522971249213796</v>
       </c>
       <c r="E22">
-        <v>0.07143797566213195</v>
+        <v>0.07305579168700183</v>
       </c>
       <c r="F22">
-        <v>0.9058959244392355</v>
+        <v>0.9893675324554891</v>
       </c>
       <c r="G22">
-        <v>0.8267682368317679</v>
+        <v>1.106288039873988</v>
       </c>
       <c r="H22">
-        <v>0.03090636966942295</v>
+        <v>0.02476759553722507</v>
       </c>
       <c r="I22">
-        <v>0.004048117459078071</v>
+        <v>0.003367726104486657</v>
       </c>
       <c r="J22">
-        <v>0.4457822194720364</v>
+        <v>0.2958154274115685</v>
       </c>
       <c r="K22">
-        <v>4.444071903055601</v>
+        <v>2.140729083123617</v>
       </c>
       <c r="L22">
-        <v>0.1210248886320855</v>
+        <v>0.8426989672549752</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.7647371329460242</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.09955918724395474</v>
       </c>
       <c r="O22">
-        <v>8.071185743544447</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.639289432583723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>5.782521104848286</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>2.727808020305162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.098752303221318</v>
+        <v>2.528129627243061</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07671633199467465</v>
+        <v>0.0942147055525453</v>
       </c>
       <c r="E23">
-        <v>0.07183992706415765</v>
+        <v>0.07344137461653133</v>
       </c>
       <c r="F23">
-        <v>0.8780701896248502</v>
+        <v>0.9728039619238729</v>
       </c>
       <c r="G23">
-        <v>0.7966020826154505</v>
+        <v>1.021675470491473</v>
       </c>
       <c r="H23">
-        <v>0.02824717872493243</v>
+        <v>0.02270863585768934</v>
       </c>
       <c r="I23">
-        <v>0.00431311294901171</v>
+        <v>0.003420093476292685</v>
       </c>
       <c r="J23">
-        <v>0.4335263644046563</v>
+        <v>0.3398322689795208</v>
       </c>
       <c r="K23">
-        <v>4.278611380530123</v>
+        <v>2.055832064682846</v>
       </c>
       <c r="L23">
-        <v>0.120141343645912</v>
+        <v>0.8024397857832213</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.7406123331301444</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.09956990180479153</v>
       </c>
       <c r="O23">
-        <v>7.774526997215332</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.549546986789778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>5.580040829977548</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>2.683592485273323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.799218655369373</v>
+        <v>2.168489213979512</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07855369894056174</v>
+        <v>0.09176660448179774</v>
       </c>
       <c r="E24">
-        <v>0.07336617340106777</v>
+        <v>0.07480585512865923</v>
       </c>
       <c r="F24">
-        <v>0.7737241892928921</v>
+        <v>0.8913072096947445</v>
       </c>
       <c r="G24">
-        <v>0.6836054785406134</v>
+        <v>0.7756644849019523</v>
       </c>
       <c r="H24">
-        <v>0.01920390961354224</v>
+        <v>0.01552806948132013</v>
       </c>
       <c r="I24">
-        <v>0.006167942333302534</v>
+        <v>0.004454655931322549</v>
       </c>
       <c r="J24">
-        <v>0.3877870558637397</v>
+        <v>0.4520524549592011</v>
       </c>
       <c r="K24">
-        <v>3.701233885803475</v>
+        <v>1.765953461580622</v>
       </c>
       <c r="L24">
-        <v>0.1170951809776533</v>
+        <v>0.6634437043220061</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.6603576948299974</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.09936988026544036</v>
       </c>
       <c r="O24">
-        <v>6.690201392371648</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.213722643946539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>4.814927113073622</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>2.450868705841572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.476173601667483</v>
+        <v>1.788447105553558</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08081210402260908</v>
+        <v>0.09170517708083992</v>
       </c>
       <c r="E25">
-        <v>0.07499651686049713</v>
+        <v>0.07613142257638805</v>
       </c>
       <c r="F25">
-        <v>0.6668172309983831</v>
+        <v>0.7716379074555135</v>
       </c>
       <c r="G25">
-        <v>0.5663545564556784</v>
+        <v>0.6340627087753603</v>
       </c>
       <c r="H25">
-        <v>0.01119491352304125</v>
+        <v>0.00889832644865457</v>
       </c>
       <c r="I25">
-        <v>0.008835204678841357</v>
+        <v>0.006021029931909894</v>
       </c>
       <c r="J25">
-        <v>0.3410244318276625</v>
+        <v>0.415691238035663</v>
       </c>
       <c r="K25">
-        <v>3.091752625155976</v>
+        <v>1.472956788854603</v>
       </c>
       <c r="L25">
-        <v>0.1135337636555747</v>
+        <v>0.5244937633687599</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5794780294705006</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.09841153309687378</v>
       </c>
       <c r="O25">
-        <v>5.52456945709929</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.866659567852906</v>
+        <v>3.951707160596641</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>2.083938690564395</v>
       </c>
     </row>
   </sheetData>
